--- a/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.513653596967799</v>
+        <v>2.513653596967686</v>
       </c>
       <c r="C2">
-        <v>1.2150121394601</v>
+        <v>1.215012139459873</v>
       </c>
       <c r="D2">
-        <v>0.207010602697693</v>
+        <v>0.2070106026978351</v>
       </c>
       <c r="E2">
-        <v>0.1695791422734274</v>
+        <v>0.1695791422733919</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.158624020117145</v>
+        <v>2.158624020117315</v>
       </c>
       <c r="C3">
-        <v>1.041069132228586</v>
+        <v>1.041069132228415</v>
       </c>
       <c r="D3">
-        <v>0.1779223124388665</v>
+        <v>0.1779223124389802</v>
       </c>
       <c r="E3">
-        <v>0.1470196973765177</v>
+        <v>0.1470196973765567</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>2.417817209783365</v>
       </c>
       <c r="H3">
-        <v>1.639439197407214</v>
+        <v>1.639439197407228</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9305223485266225</v>
+        <v>0.9305223485266296</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.944829637373999</v>
+        <v>1.944829637374028</v>
       </c>
       <c r="C4">
-        <v>0.93667473201387</v>
+        <v>0.9366747320142679</v>
       </c>
       <c r="D4">
-        <v>0.1604809672026306</v>
+        <v>0.1604809672027443</v>
       </c>
       <c r="E4">
-        <v>0.1335998981007371</v>
+        <v>0.1335998981007229</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.226411780108734</v>
+        <v>2.22641178010872</v>
       </c>
       <c r="H4">
-        <v>1.523801322606843</v>
+        <v>1.523801322606857</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8380844894986126</v>
+        <v>0.8380844894986055</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.858590203831085</v>
+        <v>1.85859020383117</v>
       </c>
       <c r="C5">
         <v>0.8946406367898589</v>
       </c>
       <c r="D5">
-        <v>0.1534631266298447</v>
+        <v>0.15346312662993</v>
       </c>
       <c r="E5">
-        <v>0.1282244474842429</v>
+        <v>0.1282244474842322</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.14981301493826</v>
+        <v>2.149813014938275</v>
       </c>
       <c r="H5">
         <v>1.477593528534442</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8008857125766724</v>
+        <v>0.8008857125766511</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.844318914190694</v>
+        <v>1.844318914190637</v>
       </c>
       <c r="C6">
-        <v>0.8876888994591638</v>
+        <v>0.8876888994589081</v>
       </c>
       <c r="D6">
-        <v>0.1523028061888283</v>
+        <v>0.1523028061887004</v>
       </c>
       <c r="E6">
-        <v>0.1273370713185358</v>
+        <v>0.1273370713185038</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.137172640871043</v>
+        <v>2.137172640871029</v>
       </c>
       <c r="H6">
         <v>1.46997239099548</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7947349718902217</v>
+        <v>0.7947349718902146</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.943663217907272</v>
+        <v>1.94366321790713</v>
       </c>
       <c r="C7">
-        <v>0.9361059122930726</v>
+        <v>0.9361059122927884</v>
       </c>
       <c r="D7">
-        <v>0.1603859787202566</v>
+        <v>0.1603859787203419</v>
       </c>
       <c r="E7">
-        <v>0.1335270444997114</v>
+        <v>0.1335270444996972</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.225373336552138</v>
+        <v>2.225373336552153</v>
       </c>
       <c r="H7">
-        <v>1.523174608538724</v>
+        <v>1.523174608538739</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8375810153493077</v>
+        <v>0.837581015349329</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.390259294259124</v>
+        <v>2.390259294259238</v>
       </c>
       <c r="C8">
-        <v>1.154474453565456</v>
+        <v>1.15447445356574</v>
       </c>
       <c r="D8">
-        <v>0.1968839943259297</v>
+        <v>0.1968839943257876</v>
       </c>
       <c r="E8">
-        <v>0.161701232718741</v>
+        <v>0.1617012327187908</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.627443367830878</v>
+        <v>2.627443367830892</v>
       </c>
       <c r="H8">
-        <v>1.766339398240476</v>
+        <v>1.766339398240461</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>3.308230220755945</v>
       </c>
       <c r="C9">
-        <v>1.606891312250411</v>
+        <v>1.606891312250355</v>
       </c>
       <c r="D9">
-        <v>0.2725936856698183</v>
+        <v>0.2725936856700457</v>
       </c>
       <c r="E9">
-        <v>0.2211742832506474</v>
+        <v>0.2211742832506971</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.477793949512517</v>
+        <v>3.477793949512488</v>
       </c>
       <c r="H9">
-        <v>2.283261581557099</v>
+        <v>2.283261581557127</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.432300154864564</v>
+        <v>1.432300154864549</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,13 +719,13 @@
         <v>4.02302568595195</v>
       </c>
       <c r="C10">
-        <v>1.962428193103392</v>
+        <v>1.962428193103051</v>
       </c>
       <c r="D10">
         <v>0.3320685586678422</v>
       </c>
       <c r="E10">
-        <v>0.268755328484005</v>
+        <v>0.2687553284840334</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.747835687516087</v>
+        <v>1.747835687516059</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.361025327248228</v>
+        <v>4.361025327247944</v>
       </c>
       <c r="C11">
         <v>2.131535415053804</v>
@@ -763,13 +763,13 @@
         <v>0.3603276974136804</v>
       </c>
       <c r="E11">
-        <v>0.291609873010529</v>
+        <v>0.2916098730104864</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.48486623451393</v>
+        <v>4.484866234513902</v>
       </c>
       <c r="H11">
         <v>2.898751271790601</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.8979058144578</v>
+        <v>1.897905814457843</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>4.491280866172133</v>
       </c>
       <c r="C12">
-        <v>2.19687426788505</v>
+        <v>2.19687426788488</v>
       </c>
       <c r="D12">
-        <v>0.3712394027483867</v>
+        <v>0.3712394027485857</v>
       </c>
       <c r="E12">
-        <v>0.3004760528079089</v>
+        <v>0.3004760528079373</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.61151262447666</v>
+        <v>4.611512624476717</v>
       </c>
       <c r="H12">
-        <v>2.976351367009329</v>
+        <v>2.976351367009315</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.463119865753242</v>
+        <v>4.463119865753526</v>
       </c>
       <c r="C13">
-        <v>2.182740117158517</v>
+        <v>2.182740117159142</v>
       </c>
       <c r="D13">
-        <v>0.3688793310510192</v>
+        <v>0.3688793310507776</v>
       </c>
       <c r="E13">
-        <v>0.2985564667424896</v>
+        <v>0.2985564667424043</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.58409603841875</v>
+        <v>4.584096038418778</v>
       </c>
       <c r="H13">
-        <v>2.959549052106865</v>
+        <v>2.959549052106908</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.943341238560294</v>
+        <v>1.943341238560308</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.371693508478756</v>
+        <v>4.371693508478984</v>
       </c>
       <c r="C14">
-        <v>2.136883239034375</v>
+        <v>2.136883239034603</v>
       </c>
       <c r="D14">
-        <v>0.361220949088974</v>
+        <v>0.3612209490891587</v>
       </c>
       <c r="E14">
-        <v>0.292334814080462</v>
+        <v>0.2923348140805189</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.495222829055706</v>
+        <v>4.495222829055763</v>
       </c>
       <c r="H14">
-        <v>2.905095581654749</v>
+        <v>2.905095581654777</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.902651222793338</v>
+        <v>1.902651222793324</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.316000606601619</v>
+        <v>4.316000606601733</v>
       </c>
       <c r="C15">
-        <v>2.108972074579469</v>
+        <v>2.108972074579356</v>
       </c>
       <c r="D15">
-        <v>0.3565586279158452</v>
+        <v>0.3565586279157884</v>
       </c>
       <c r="E15">
-        <v>0.2885526832558583</v>
+        <v>0.2885526832558725</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.441188255706464</v>
+        <v>4.441188255706493</v>
       </c>
       <c r="H15">
-        <v>2.87199770145682</v>
+        <v>2.871997701456834</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.877883855890346</v>
+        <v>1.877883855890374</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.001228734129597</v>
+        <v>4.00122873412954</v>
       </c>
       <c r="C16">
-        <v>1.951544571508975</v>
+        <v>1.951544571508521</v>
       </c>
       <c r="D16">
-        <v>0.3302490265392919</v>
+        <v>0.3302490265394766</v>
       </c>
       <c r="E16">
-        <v>0.2672891312553674</v>
+        <v>0.2672891312553602</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.137290869699314</v>
+        <v>4.137290869699285</v>
       </c>
       <c r="H16">
         <v>2.685992653942648</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.738176647109455</v>
+        <v>1.738176647109441</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.811686317191743</v>
+        <v>3.811686317191629</v>
       </c>
       <c r="C17">
-        <v>1.857013637110981</v>
+        <v>1.857013637110867</v>
       </c>
       <c r="D17">
-        <v>0.3144417895638298</v>
+        <v>0.3144417895638583</v>
       </c>
       <c r="E17">
-        <v>0.2545790758155846</v>
+        <v>0.254579075815542</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.955565491198712</v>
+        <v>3.955565491198684</v>
       </c>
       <c r="H17">
-        <v>2.574886381685744</v>
+        <v>2.574886381685701</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.654280217241237</v>
+        <v>1.654280217241251</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.703845593598487</v>
+        <v>3.703845593598544</v>
       </c>
       <c r="C18">
-        <v>1.803318897543988</v>
+        <v>1.803318897543875</v>
       </c>
       <c r="D18">
-        <v>0.3054605740993139</v>
+        <v>0.305460574098916</v>
       </c>
       <c r="E18">
-        <v>0.2473798115438228</v>
+        <v>0.2473798115438726</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.852613234583089</v>
+        <v>3.85261323458306</v>
       </c>
       <c r="H18">
-        <v>2.511984708016087</v>
+        <v>2.511984708016129</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.606625368280433</v>
+        <v>1.606625368280419</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.667523638544253</v>
+        <v>3.667523638544424</v>
       </c>
       <c r="C19">
-        <v>1.785248428455191</v>
+        <v>1.785248428455418</v>
       </c>
       <c r="D19">
-        <v>0.302437668177717</v>
+        <v>0.3024376681779302</v>
       </c>
       <c r="E19">
-        <v>0.2449603335061568</v>
+        <v>0.2449603335060857</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.818011250480822</v>
+        <v>3.818011250480851</v>
       </c>
       <c r="H19">
         <v>2.490850854821488</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.590587597681321</v>
+        <v>1.590587597681335</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.831738634140777</v>
+        <v>3.831738634140834</v>
       </c>
       <c r="C20">
-        <v>1.867004952162233</v>
+        <v>1.86700495216229</v>
       </c>
       <c r="D20">
-        <v>0.3161127915201547</v>
+        <v>0.3161127915201263</v>
       </c>
       <c r="E20">
-        <v>0.2559203215855277</v>
+        <v>0.2559203215855064</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.974744449391238</v>
+        <v>3.974744449391267</v>
       </c>
       <c r="H20">
-        <v>2.586607821005742</v>
+        <v>2.586607821005771</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.663147633555042</v>
+        <v>1.663147633555056</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.398482517310356</v>
+        <v>4.398482517310413</v>
       </c>
       <c r="C21">
-        <v>2.150315024144959</v>
+        <v>2.150315024145016</v>
       </c>
       <c r="D21">
         <v>0.3634643516602125</v>
       </c>
       <c r="E21">
-        <v>0.2941561818524718</v>
+        <v>0.2941561818524789</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.521242042222156</v>
+        <v>4.521242042222184</v>
       </c>
       <c r="H21">
-        <v>2.921035781591613</v>
+        <v>2.921035781591655</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.914569831132027</v>
+        <v>1.914569831132042</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.782325988451646</v>
+        <v>4.78232598845176</v>
       </c>
       <c r="C22">
-        <v>2.343210909745153</v>
+        <v>2.343210909745437</v>
       </c>
       <c r="D22">
-        <v>0.39566174419015</v>
+        <v>0.3956617441903632</v>
       </c>
       <c r="E22">
-        <v>0.3204025779576298</v>
+        <v>0.3204025779576654</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.896000979735248</v>
+        <v>4.89600097973522</v>
       </c>
       <c r="H22">
-        <v>3.150805498721354</v>
+        <v>3.150805498721311</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.576071333785535</v>
+        <v>4.576071333785706</v>
       </c>
       <c r="C23">
-        <v>2.239457767449949</v>
+        <v>2.239457767449835</v>
       </c>
       <c r="D23">
-        <v>0.3783486116669366</v>
+        <v>0.3783486116671639</v>
       </c>
       <c r="E23">
-        <v>0.3062648330363871</v>
+        <v>0.3062648330363515</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.694180016487877</v>
+        <v>4.694180016487849</v>
       </c>
       <c r="H23">
-        <v>3.027025209465222</v>
+        <v>3.027025209465208</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>3.822669493064836</v>
       </c>
       <c r="C24">
-        <v>1.862485864218741</v>
+        <v>1.862485864219082</v>
       </c>
       <c r="D24">
-        <v>0.3153570022977874</v>
+        <v>0.3153570022976595</v>
       </c>
       <c r="E24">
-        <v>0.2553136109725003</v>
+        <v>0.2553136109725571</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.966068932300203</v>
+        <v>3.966068932300118</v>
       </c>
       <c r="H24">
-        <v>2.581305545352706</v>
+        <v>2.58130554535272</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.659136888460637</v>
+        <v>1.659136888460665</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.054004990259386</v>
+        <v>3.054004990259273</v>
       </c>
       <c r="C25">
-        <v>1.481124688159866</v>
+        <v>1.481124688160151</v>
       </c>
       <c r="D25">
-        <v>0.2515444365218826</v>
+        <v>0.2515444365216695</v>
       </c>
       <c r="E25">
-        <v>0.2045103253941463</v>
+        <v>0.2045103253941178</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.239437699662403</v>
+        <v>3.239437699662375</v>
       </c>
       <c r="H25">
-        <v>2.138064547594396</v>
+        <v>2.138064547594411</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.320702282646067</v>
+        <v>1.32070228264611</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.513653596967686</v>
+        <v>2.513653596967799</v>
       </c>
       <c r="C2">
-        <v>1.215012139459873</v>
+        <v>1.2150121394601</v>
       </c>
       <c r="D2">
-        <v>0.2070106026978351</v>
+        <v>0.207010602697693</v>
       </c>
       <c r="E2">
-        <v>0.1695791422733919</v>
+        <v>0.1695791422734274</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.158624020117315</v>
+        <v>2.158624020117145</v>
       </c>
       <c r="C3">
-        <v>1.041069132228415</v>
+        <v>1.041069132228586</v>
       </c>
       <c r="D3">
-        <v>0.1779223124389802</v>
+        <v>0.1779223124388665</v>
       </c>
       <c r="E3">
-        <v>0.1470196973765567</v>
+        <v>0.1470196973765177</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>2.417817209783365</v>
       </c>
       <c r="H3">
-        <v>1.639439197407228</v>
+        <v>1.639439197407214</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9305223485266296</v>
+        <v>0.9305223485266225</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.944829637374028</v>
+        <v>1.944829637373999</v>
       </c>
       <c r="C4">
-        <v>0.9366747320142679</v>
+        <v>0.93667473201387</v>
       </c>
       <c r="D4">
-        <v>0.1604809672027443</v>
+        <v>0.1604809672026306</v>
       </c>
       <c r="E4">
-        <v>0.1335998981007229</v>
+        <v>0.1335998981007371</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.22641178010872</v>
+        <v>2.226411780108734</v>
       </c>
       <c r="H4">
-        <v>1.523801322606857</v>
+        <v>1.523801322606843</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8380844894986055</v>
+        <v>0.8380844894986126</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.85859020383117</v>
+        <v>1.858590203831085</v>
       </c>
       <c r="C5">
         <v>0.8946406367898589</v>
       </c>
       <c r="D5">
-        <v>0.15346312662993</v>
+        <v>0.1534631266298447</v>
       </c>
       <c r="E5">
-        <v>0.1282244474842322</v>
+        <v>0.1282244474842429</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.149813014938275</v>
+        <v>2.14981301493826</v>
       </c>
       <c r="H5">
         <v>1.477593528534442</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8008857125766511</v>
+        <v>0.8008857125766724</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.844318914190637</v>
+        <v>1.844318914190694</v>
       </c>
       <c r="C6">
-        <v>0.8876888994589081</v>
+        <v>0.8876888994591638</v>
       </c>
       <c r="D6">
-        <v>0.1523028061887004</v>
+        <v>0.1523028061888283</v>
       </c>
       <c r="E6">
-        <v>0.1273370713185038</v>
+        <v>0.1273370713185358</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.137172640871029</v>
+        <v>2.137172640871043</v>
       </c>
       <c r="H6">
         <v>1.46997239099548</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7947349718902146</v>
+        <v>0.7947349718902217</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.94366321790713</v>
+        <v>1.943663217907272</v>
       </c>
       <c r="C7">
-        <v>0.9361059122927884</v>
+        <v>0.9361059122930726</v>
       </c>
       <c r="D7">
-        <v>0.1603859787203419</v>
+        <v>0.1603859787202566</v>
       </c>
       <c r="E7">
-        <v>0.1335270444996972</v>
+        <v>0.1335270444997114</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.225373336552153</v>
+        <v>2.225373336552138</v>
       </c>
       <c r="H7">
-        <v>1.523174608538739</v>
+        <v>1.523174608538724</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.837581015349329</v>
+        <v>0.8375810153493077</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.390259294259238</v>
+        <v>2.390259294259124</v>
       </c>
       <c r="C8">
-        <v>1.15447445356574</v>
+        <v>1.154474453565456</v>
       </c>
       <c r="D8">
-        <v>0.1968839943257876</v>
+        <v>0.1968839943259297</v>
       </c>
       <c r="E8">
-        <v>0.1617012327187908</v>
+        <v>0.161701232718741</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.627443367830892</v>
+        <v>2.627443367830878</v>
       </c>
       <c r="H8">
-        <v>1.766339398240461</v>
+        <v>1.766339398240476</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>3.308230220755945</v>
       </c>
       <c r="C9">
-        <v>1.606891312250355</v>
+        <v>1.606891312250411</v>
       </c>
       <c r="D9">
-        <v>0.2725936856700457</v>
+        <v>0.2725936856698183</v>
       </c>
       <c r="E9">
-        <v>0.2211742832506971</v>
+        <v>0.2211742832506474</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.477793949512488</v>
+        <v>3.477793949512517</v>
       </c>
       <c r="H9">
-        <v>2.283261581557127</v>
+        <v>2.283261581557099</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.432300154864549</v>
+        <v>1.432300154864564</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,13 +719,13 @@
         <v>4.02302568595195</v>
       </c>
       <c r="C10">
-        <v>1.962428193103051</v>
+        <v>1.962428193103392</v>
       </c>
       <c r="D10">
         <v>0.3320685586678422</v>
       </c>
       <c r="E10">
-        <v>0.2687553284840334</v>
+        <v>0.268755328484005</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.747835687516059</v>
+        <v>1.747835687516087</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.361025327247944</v>
+        <v>4.361025327248228</v>
       </c>
       <c r="C11">
         <v>2.131535415053804</v>
@@ -763,13 +763,13 @@
         <v>0.3603276974136804</v>
       </c>
       <c r="E11">
-        <v>0.2916098730104864</v>
+        <v>0.291609873010529</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.484866234513902</v>
+        <v>4.48486623451393</v>
       </c>
       <c r="H11">
         <v>2.898751271790601</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.897905814457843</v>
+        <v>1.8979058144578</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>4.491280866172133</v>
       </c>
       <c r="C12">
-        <v>2.19687426788488</v>
+        <v>2.19687426788505</v>
       </c>
       <c r="D12">
-        <v>0.3712394027485857</v>
+        <v>0.3712394027483867</v>
       </c>
       <c r="E12">
-        <v>0.3004760528079373</v>
+        <v>0.3004760528079089</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.611512624476717</v>
+        <v>4.61151262447666</v>
       </c>
       <c r="H12">
-        <v>2.976351367009315</v>
+        <v>2.976351367009329</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.463119865753526</v>
+        <v>4.463119865753242</v>
       </c>
       <c r="C13">
-        <v>2.182740117159142</v>
+        <v>2.182740117158517</v>
       </c>
       <c r="D13">
-        <v>0.3688793310507776</v>
+        <v>0.3688793310510192</v>
       </c>
       <c r="E13">
-        <v>0.2985564667424043</v>
+        <v>0.2985564667424896</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.584096038418778</v>
+        <v>4.58409603841875</v>
       </c>
       <c r="H13">
-        <v>2.959549052106908</v>
+        <v>2.959549052106865</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.943341238560308</v>
+        <v>1.943341238560294</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.371693508478984</v>
+        <v>4.371693508478756</v>
       </c>
       <c r="C14">
-        <v>2.136883239034603</v>
+        <v>2.136883239034375</v>
       </c>
       <c r="D14">
-        <v>0.3612209490891587</v>
+        <v>0.361220949088974</v>
       </c>
       <c r="E14">
-        <v>0.2923348140805189</v>
+        <v>0.292334814080462</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.495222829055763</v>
+        <v>4.495222829055706</v>
       </c>
       <c r="H14">
-        <v>2.905095581654777</v>
+        <v>2.905095581654749</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.902651222793324</v>
+        <v>1.902651222793338</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.316000606601733</v>
+        <v>4.316000606601619</v>
       </c>
       <c r="C15">
-        <v>2.108972074579356</v>
+        <v>2.108972074579469</v>
       </c>
       <c r="D15">
-        <v>0.3565586279157884</v>
+        <v>0.3565586279158452</v>
       </c>
       <c r="E15">
-        <v>0.2885526832558725</v>
+        <v>0.2885526832558583</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.441188255706493</v>
+        <v>4.441188255706464</v>
       </c>
       <c r="H15">
-        <v>2.871997701456834</v>
+        <v>2.87199770145682</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.877883855890374</v>
+        <v>1.877883855890346</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.00122873412954</v>
+        <v>4.001228734129597</v>
       </c>
       <c r="C16">
-        <v>1.951544571508521</v>
+        <v>1.951544571508975</v>
       </c>
       <c r="D16">
-        <v>0.3302490265394766</v>
+        <v>0.3302490265392919</v>
       </c>
       <c r="E16">
-        <v>0.2672891312553602</v>
+        <v>0.2672891312553674</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.137290869699285</v>
+        <v>4.137290869699314</v>
       </c>
       <c r="H16">
         <v>2.685992653942648</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.738176647109441</v>
+        <v>1.738176647109455</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.811686317191629</v>
+        <v>3.811686317191743</v>
       </c>
       <c r="C17">
-        <v>1.857013637110867</v>
+        <v>1.857013637110981</v>
       </c>
       <c r="D17">
-        <v>0.3144417895638583</v>
+        <v>0.3144417895638298</v>
       </c>
       <c r="E17">
-        <v>0.254579075815542</v>
+        <v>0.2545790758155846</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.955565491198684</v>
+        <v>3.955565491198712</v>
       </c>
       <c r="H17">
-        <v>2.574886381685701</v>
+        <v>2.574886381685744</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.654280217241251</v>
+        <v>1.654280217241237</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.703845593598544</v>
+        <v>3.703845593598487</v>
       </c>
       <c r="C18">
-        <v>1.803318897543875</v>
+        <v>1.803318897543988</v>
       </c>
       <c r="D18">
-        <v>0.305460574098916</v>
+        <v>0.3054605740993139</v>
       </c>
       <c r="E18">
-        <v>0.2473798115438726</v>
+        <v>0.2473798115438228</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.85261323458306</v>
+        <v>3.852613234583089</v>
       </c>
       <c r="H18">
-        <v>2.511984708016129</v>
+        <v>2.511984708016087</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.606625368280419</v>
+        <v>1.606625368280433</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.667523638544424</v>
+        <v>3.667523638544253</v>
       </c>
       <c r="C19">
-        <v>1.785248428455418</v>
+        <v>1.785248428455191</v>
       </c>
       <c r="D19">
-        <v>0.3024376681779302</v>
+        <v>0.302437668177717</v>
       </c>
       <c r="E19">
-        <v>0.2449603335060857</v>
+        <v>0.2449603335061568</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.818011250480851</v>
+        <v>3.818011250480822</v>
       </c>
       <c r="H19">
         <v>2.490850854821488</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.590587597681335</v>
+        <v>1.590587597681321</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.831738634140834</v>
+        <v>3.831738634140777</v>
       </c>
       <c r="C20">
-        <v>1.86700495216229</v>
+        <v>1.867004952162233</v>
       </c>
       <c r="D20">
-        <v>0.3161127915201263</v>
+        <v>0.3161127915201547</v>
       </c>
       <c r="E20">
-        <v>0.2559203215855064</v>
+        <v>0.2559203215855277</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.974744449391267</v>
+        <v>3.974744449391238</v>
       </c>
       <c r="H20">
-        <v>2.586607821005771</v>
+        <v>2.586607821005742</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.663147633555056</v>
+        <v>1.663147633555042</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.398482517310413</v>
+        <v>4.398482517310356</v>
       </c>
       <c r="C21">
-        <v>2.150315024145016</v>
+        <v>2.150315024144959</v>
       </c>
       <c r="D21">
         <v>0.3634643516602125</v>
       </c>
       <c r="E21">
-        <v>0.2941561818524789</v>
+        <v>0.2941561818524718</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.521242042222184</v>
+        <v>4.521242042222156</v>
       </c>
       <c r="H21">
-        <v>2.921035781591655</v>
+        <v>2.921035781591613</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.914569831132042</v>
+        <v>1.914569831132027</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.78232598845176</v>
+        <v>4.782325988451646</v>
       </c>
       <c r="C22">
-        <v>2.343210909745437</v>
+        <v>2.343210909745153</v>
       </c>
       <c r="D22">
-        <v>0.3956617441903632</v>
+        <v>0.39566174419015</v>
       </c>
       <c r="E22">
-        <v>0.3204025779576654</v>
+        <v>0.3204025779576298</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.89600097973522</v>
+        <v>4.896000979735248</v>
       </c>
       <c r="H22">
-        <v>3.150805498721311</v>
+        <v>3.150805498721354</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.576071333785706</v>
+        <v>4.576071333785535</v>
       </c>
       <c r="C23">
-        <v>2.239457767449835</v>
+        <v>2.239457767449949</v>
       </c>
       <c r="D23">
-        <v>0.3783486116671639</v>
+        <v>0.3783486116669366</v>
       </c>
       <c r="E23">
-        <v>0.3062648330363515</v>
+        <v>0.3062648330363871</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.694180016487849</v>
+        <v>4.694180016487877</v>
       </c>
       <c r="H23">
-        <v>3.027025209465208</v>
+        <v>3.027025209465222</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>3.822669493064836</v>
       </c>
       <c r="C24">
-        <v>1.862485864219082</v>
+        <v>1.862485864218741</v>
       </c>
       <c r="D24">
-        <v>0.3153570022976595</v>
+        <v>0.3153570022977874</v>
       </c>
       <c r="E24">
-        <v>0.2553136109725571</v>
+        <v>0.2553136109725003</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.966068932300118</v>
+        <v>3.966068932300203</v>
       </c>
       <c r="H24">
-        <v>2.58130554535272</v>
+        <v>2.581305545352706</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.659136888460665</v>
+        <v>1.659136888460637</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.054004990259273</v>
+        <v>3.054004990259386</v>
       </c>
       <c r="C25">
-        <v>1.481124688160151</v>
+        <v>1.481124688159866</v>
       </c>
       <c r="D25">
-        <v>0.2515444365216695</v>
+        <v>0.2515444365218826</v>
       </c>
       <c r="E25">
-        <v>0.2045103253941178</v>
+        <v>0.2045103253941463</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.239437699662375</v>
+        <v>3.239437699662403</v>
       </c>
       <c r="H25">
-        <v>2.138064547594411</v>
+        <v>2.138064547594396</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.32070228264611</v>
+        <v>1.320702282646067</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.513653596967799</v>
+        <v>2.51341693392385</v>
       </c>
       <c r="C2">
-        <v>1.2150121394601</v>
+        <v>1.213754916075175</v>
       </c>
       <c r="D2">
-        <v>0.207010602697693</v>
+        <v>0.2069988099262616</v>
       </c>
       <c r="E2">
-        <v>0.1695791422734274</v>
+        <v>0.1696126380879903</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.739998203249911</v>
+        <v>0.8906177549036585</v>
       </c>
       <c r="H2">
-        <v>1.834574252114422</v>
+        <v>1.844471999853184</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.82917695430406</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,36 +445,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.084671907968449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1.084440694057854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.158624020117145</v>
+        <v>2.158487413265618</v>
       </c>
       <c r="C3">
-        <v>1.041069132228586</v>
+        <v>1.040011159820267</v>
       </c>
       <c r="D3">
-        <v>0.1779223124388665</v>
+        <v>0.1779149328418725</v>
       </c>
       <c r="E3">
-        <v>0.1470196973765177</v>
+        <v>0.1470503168710557</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.417817209783365</v>
+        <v>0.7801436797565486</v>
       </c>
       <c r="H3">
-        <v>1.639439197407214</v>
+        <v>1.633997974316401</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.634712549008029</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,36 +486,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9305223485266225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.930340879542328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.944829637373999</v>
+        <v>1.944743902271256</v>
       </c>
       <c r="C4">
-        <v>0.93667473201387</v>
+        <v>0.9357325222800341</v>
       </c>
       <c r="D4">
-        <v>0.1604809672026306</v>
+        <v>0.1604757953585647</v>
       </c>
       <c r="E4">
-        <v>0.1335998981007371</v>
+        <v>0.1336288104187879</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.226411780108734</v>
+        <v>0.7144178920323583</v>
       </c>
       <c r="H4">
-        <v>1.523801322606843</v>
+        <v>1.509055854437761</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.519476771886502</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,36 +527,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8380844894986126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.8379298765126038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.858590203831085</v>
+        <v>1.858522945200519</v>
       </c>
       <c r="C5">
-        <v>0.8946406367898589</v>
+        <v>0.8937442186295357</v>
       </c>
       <c r="D5">
-        <v>0.1534631266298447</v>
+        <v>0.1534587513525878</v>
       </c>
       <c r="E5">
-        <v>0.1282244474842429</v>
+        <v>0.1282526844179657</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.14981301493826</v>
+        <v>0.6880918323215184</v>
       </c>
       <c r="H5">
-        <v>1.477593528534442</v>
+        <v>1.459079653785309</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.473430851850623</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,36 +568,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8008857125766724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.8007412691627351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.844318914190694</v>
+        <v>1.844254598080369</v>
       </c>
       <c r="C6">
-        <v>0.8876888994591638</v>
+        <v>0.8868000086681036</v>
       </c>
       <c r="D6">
-        <v>0.1523028061888283</v>
+        <v>0.1522985575575007</v>
       </c>
       <c r="E6">
-        <v>0.1273370713185358</v>
+        <v>0.1273651974593051</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.137172640871043</v>
+        <v>0.68374609983222</v>
       </c>
       <c r="H6">
-        <v>1.46997239099548</v>
+        <v>1.450834025541496</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.465836485637183</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,36 +609,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7947349718902217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.794592174373463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.943663217907272</v>
+        <v>1.943577740622572</v>
       </c>
       <c r="C7">
-        <v>0.9361059122930726</v>
+        <v>0.9351643253869213</v>
       </c>
       <c r="D7">
-        <v>0.1603859787202566</v>
+        <v>0.1603808180087896</v>
       </c>
       <c r="E7">
-        <v>0.1335270444997114</v>
+        <v>0.1335559476210619</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.225373336552138</v>
+        <v>0.7140610856280603</v>
       </c>
       <c r="H7">
-        <v>1.523174608538724</v>
+        <v>1.508378231361974</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.518852248387461</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,36 +650,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8375810153493077</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.8374265424647049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.390259294259124</v>
+        <v>2.390059584412086</v>
       </c>
       <c r="C8">
-        <v>1.154474453565456</v>
+        <v>1.153287473416299</v>
       </c>
       <c r="D8">
-        <v>0.1968839943259297</v>
+        <v>0.1968738425829741</v>
       </c>
       <c r="E8">
-        <v>0.161701232718741</v>
+        <v>0.1617337284667428</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.627443367830878</v>
+        <v>0.8520435409899676</v>
       </c>
       <c r="H8">
-        <v>1.766339398240476</v>
+        <v>1.770921074309257</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.761175641152761</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,36 +691,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.031007784437925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1.030794587881687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.308230220755945</v>
+        <v>3.307700744100714</v>
       </c>
       <c r="C9">
-        <v>1.606891312250411</v>
+        <v>1.60515617730033</v>
       </c>
       <c r="D9">
-        <v>0.2725936856698183</v>
+        <v>0.2725684685043319</v>
       </c>
       <c r="E9">
-        <v>0.2211742832506474</v>
+        <v>0.2212139168685425</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.477793949512517</v>
+        <v>1.143045309849924</v>
       </c>
       <c r="H9">
-        <v>2.283261581557099</v>
+        <v>2.327040504318717</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.276346884248042</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,36 +732,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.432300154864564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.431934074982195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.02302568595195</v>
+        <v>4.022150992777824</v>
       </c>
       <c r="C10">
-        <v>1.962428193103392</v>
+        <v>1.96022384459161</v>
       </c>
       <c r="D10">
-        <v>0.3320685586678422</v>
+        <v>0.3320267158995733</v>
       </c>
       <c r="E10">
-        <v>0.268755328484005</v>
+        <v>0.2687994476348479</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.158251029091389</v>
+        <v>1.375357951777517</v>
       </c>
       <c r="H10">
-        <v>2.69881364797763</v>
+        <v>2.772612830942819</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.690509762149233</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,36 +773,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.747835687516087</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.747319178627023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.361025327248228</v>
+        <v>4.359959527030242</v>
       </c>
       <c r="C11">
-        <v>2.131535415053804</v>
+        <v>2.129095428835456</v>
       </c>
       <c r="D11">
-        <v>0.3603276974136804</v>
+        <v>0.3602763465818839</v>
       </c>
       <c r="E11">
-        <v>0.291609873010529</v>
+        <v>0.2916555578845745</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.48486623451393</v>
+        <v>1.486737273698765</v>
       </c>
       <c r="H11">
-        <v>2.898751271790601</v>
+        <v>2.986612704354485</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.889780980690276</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,36 +814,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.8979058144578</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.897307897235422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.491280866172133</v>
+        <v>4.490136485404264</v>
       </c>
       <c r="C12">
-        <v>2.19687426788505</v>
+        <v>2.194340998041071</v>
       </c>
       <c r="D12">
-        <v>0.3712394027483867</v>
+        <v>0.3711840866169354</v>
       </c>
       <c r="E12">
-        <v>0.3004760528079089</v>
+        <v>0.3005222217760561</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.61151262447666</v>
+        <v>1.529905558275374</v>
       </c>
       <c r="H12">
-        <v>2.976351367009329</v>
+        <v>3.069610839848536</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.967122451297527</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,36 +855,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.955882373812031</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.955251226158595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.463119865753242</v>
+        <v>4.461992709802018</v>
       </c>
       <c r="C13">
-        <v>2.182740117158517</v>
+        <v>2.180227134065831</v>
       </c>
       <c r="D13">
-        <v>0.3688793310510192</v>
+        <v>0.3688248867705539</v>
       </c>
       <c r="E13">
-        <v>0.2985564667424896</v>
+        <v>0.2986025371130125</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.58409603841875</v>
+        <v>1.520561308321959</v>
       </c>
       <c r="H13">
-        <v>2.959549052106865</v>
+        <v>3.051642449142406</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.950376139245805</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,36 +896,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.943341238560294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.942717364763325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.371693508478756</v>
+        <v>4.370621376696874</v>
       </c>
       <c r="C14">
-        <v>2.136883239034375</v>
+        <v>2.13443566529287</v>
       </c>
       <c r="D14">
-        <v>0.361220949088974</v>
+        <v>0.3611692799181441</v>
       </c>
       <c r="E14">
-        <v>0.292334814080462</v>
+        <v>0.2923805412519798</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.495222829055706</v>
+        <v>1.49026778297727</v>
       </c>
       <c r="H14">
-        <v>2.905095581654749</v>
+        <v>2.993399557147967</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.896104147743301</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,36 +937,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.902651222793338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.902050623465342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.316000606601619</v>
+        <v>4.314961324656963</v>
       </c>
       <c r="C15">
-        <v>2.108972074579469</v>
+        <v>2.106564008724547</v>
       </c>
       <c r="D15">
-        <v>0.3565586279158452</v>
+        <v>0.3565086081215441</v>
       </c>
       <c r="E15">
-        <v>0.2885526832558583</v>
+        <v>0.288598184562467</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.441188255706464</v>
+        <v>1.47184689167409</v>
       </c>
       <c r="H15">
-        <v>2.87199770145682</v>
+        <v>2.957990535404775</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.863116567348911</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,36 +978,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.877883855890346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.877297181391697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.001228734129597</v>
+        <v>4.000365740135578</v>
       </c>
       <c r="C16">
-        <v>1.951544571508975</v>
+        <v>1.949355107224051</v>
       </c>
       <c r="D16">
-        <v>0.3302490265392919</v>
+        <v>0.3302077592713886</v>
       </c>
       <c r="E16">
-        <v>0.2672891312553674</v>
+        <v>0.2673331354078741</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.137290869699314</v>
+        <v>1.368207692168653</v>
       </c>
       <c r="H16">
-        <v>2.685992653942648</v>
+        <v>2.75888218474222</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.677731520406965</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,36 +1019,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.738176647109455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.737665154746821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.811686317191743</v>
+        <v>3.810921913075504</v>
       </c>
       <c r="C17">
-        <v>1.857013637110981</v>
+        <v>1.854952047306085</v>
       </c>
       <c r="D17">
-        <v>0.3144417895638298</v>
+        <v>0.3144053401819491</v>
       </c>
       <c r="E17">
-        <v>0.2545790758155846</v>
+        <v>0.2546220156434913</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.955565491198712</v>
+        <v>1.306200526200115</v>
       </c>
       <c r="H17">
-        <v>2.574886381685744</v>
+        <v>2.639850905716401</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.566995930817299</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,36 +1060,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.654280217241237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.653811185327243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.703845593598487</v>
+        <v>3.703134785062389</v>
       </c>
       <c r="C18">
-        <v>1.803318897543988</v>
+        <v>1.801328831734907</v>
       </c>
       <c r="D18">
-        <v>0.3054605740993139</v>
+        <v>0.3054267190534574</v>
       </c>
       <c r="E18">
-        <v>0.2473798115438228</v>
+        <v>0.2474220976757593</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.852613234583089</v>
+        <v>1.271060097378921</v>
       </c>
       <c r="H18">
-        <v>2.511984708016087</v>
+        <v>2.572428151487003</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.504304315446035</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,36 +1101,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.606625368280433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.606179576467156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.667523638544253</v>
+        <v>3.666830476947382</v>
       </c>
       <c r="C19">
-        <v>1.785248428455191</v>
+        <v>1.783282254282597</v>
       </c>
       <c r="D19">
-        <v>0.302437668177717</v>
+        <v>0.3024046633842659</v>
       </c>
       <c r="E19">
-        <v>0.2449603335061568</v>
+        <v>0.2450023921723243</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.818011250480822</v>
+        <v>1.259247502966304</v>
       </c>
       <c r="H19">
-        <v>2.490850854821488</v>
+        <v>2.549769524728646</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.483241078812853</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,36 +1142,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.590587597681321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.590149485592804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.831738634140777</v>
+        <v>3.830964065350486</v>
       </c>
       <c r="C20">
-        <v>1.867004952162233</v>
+        <v>1.864929965137776</v>
       </c>
       <c r="D20">
-        <v>0.3161127915201547</v>
+        <v>0.316075848103452</v>
       </c>
       <c r="E20">
-        <v>0.2559203215855277</v>
+        <v>0.2559633792557605</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.974744449391238</v>
+        <v>1.312745873290339</v>
       </c>
       <c r="H20">
-        <v>2.586607821005742</v>
+        <v>2.652412031782006</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.578678244751231</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,36 +1183,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.663147633555042</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.66267420741211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.398482517310356</v>
+        <v>4.397394404446345</v>
       </c>
       <c r="C21">
-        <v>2.150315024144959</v>
+        <v>2.147848356090208</v>
       </c>
       <c r="D21">
-        <v>0.3634643516602125</v>
+        <v>0.3634118780760787</v>
       </c>
       <c r="E21">
-        <v>0.2941561818524718</v>
+        <v>0.2942020131864567</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.521242042222156</v>
+        <v>1.499137285233076</v>
       </c>
       <c r="H21">
-        <v>2.921035781591613</v>
+        <v>3.01045068991715</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.911991225230381</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,36 +1224,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.914569831132027</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.913962465786611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.782325988451646</v>
+        <v>4.780995854005027</v>
       </c>
       <c r="C22">
-        <v>2.343210909745153</v>
+        <v>2.340464052322659</v>
       </c>
       <c r="D22">
-        <v>0.39566174419015</v>
+        <v>0.3955969349857611</v>
       </c>
       <c r="E22">
-        <v>0.3204025779576298</v>
+        <v>0.3204495559745197</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.896000979735248</v>
+        <v>1.626838744735039</v>
       </c>
       <c r="H22">
-        <v>3.150805498721354</v>
+        <v>3.256085853670584</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.140994817007197</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,36 +1265,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.085710763420664</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2.085001483972079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.576071333785535</v>
+        <v>4.57487429905558</v>
       </c>
       <c r="C23">
-        <v>2.239457767449949</v>
+        <v>2.236863015429492</v>
       </c>
       <c r="D23">
-        <v>0.3783486116669366</v>
+        <v>0.378290621343325</v>
       </c>
       <c r="E23">
-        <v>0.3062648330363871</v>
+        <v>0.3063112779461719</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.694180016487877</v>
+        <v>1.558077770371</v>
       </c>
       <c r="H23">
-        <v>3.027025209465222</v>
+        <v>3.123792451308816</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.017627372663185</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,36 +1306,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.993664975045803</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.993011624965405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.822669493064836</v>
+        <v>3.821899529238408</v>
       </c>
       <c r="C24">
-        <v>1.862485864218741</v>
+        <v>1.860416940221285</v>
       </c>
       <c r="D24">
-        <v>0.3153570022977874</v>
+        <v>0.3153202827748061</v>
       </c>
       <c r="E24">
-        <v>0.2553136109725003</v>
+        <v>0.2553566154936959</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.966068932300203</v>
+        <v>1.309785151068837</v>
       </c>
       <c r="H24">
-        <v>2.581305545352706</v>
+        <v>2.646730025449415</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.573393667093058</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,36 +1347,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.659136888460637</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.6586654525574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.054004990259386</v>
+        <v>3.053579515479385</v>
       </c>
       <c r="C25">
-        <v>1.481124688159866</v>
+        <v>1.479547335337656</v>
       </c>
       <c r="D25">
-        <v>0.2515444365218826</v>
+        <v>0.2515240675892585</v>
       </c>
       <c r="E25">
-        <v>0.2045103253941463</v>
+        <v>0.2045480836641573</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.239437699662403</v>
+        <v>1.061565959313512</v>
       </c>
       <c r="H25">
-        <v>2.138064547594396</v>
+        <v>2.171065786678184</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.131638110967899</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.320702282646067</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.320382950061415</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.51341693392385</v>
+        <v>2.30904617740805</v>
       </c>
       <c r="C2">
-        <v>1.213754916075175</v>
+        <v>0.508090225648516</v>
       </c>
       <c r="D2">
-        <v>0.2069988099262616</v>
+        <v>0.5515502532174708</v>
       </c>
       <c r="E2">
-        <v>0.1696126380879903</v>
+        <v>0.2461601993895002</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8906177549036585</v>
+        <v>0.0008177730425834895</v>
       </c>
       <c r="H2">
-        <v>1.844471999853184</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.82917695430406</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1457675785947217</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6297392388815837</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.084440694057854</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>9.127448634255416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.158487413265618</v>
+        <v>1.994012404600937</v>
       </c>
       <c r="C3">
-        <v>1.040011159820267</v>
+        <v>0.4332677177120843</v>
       </c>
       <c r="D3">
-        <v>0.1779149328418725</v>
+        <v>0.4952961365642068</v>
       </c>
       <c r="E3">
-        <v>0.1470503168710557</v>
+        <v>0.2195785256917873</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7801436797565486</v>
+        <v>0.0008314555612423703</v>
       </c>
       <c r="H3">
-        <v>1.633997974316401</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.634712549008029</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1289127695721817</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5421808145639417</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.930340879542328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>8.064281051711646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.944743902271256</v>
+        <v>1.808877865163026</v>
       </c>
       <c r="C4">
-        <v>0.9357325222800341</v>
+        <v>0.3896853462132697</v>
       </c>
       <c r="D4">
-        <v>0.1604757953585647</v>
+        <v>0.4622365619081847</v>
       </c>
       <c r="E4">
-        <v>0.1336288104187879</v>
+        <v>0.2039411845463377</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7144178920323583</v>
+        <v>0.0008399693797753378</v>
       </c>
       <c r="H4">
-        <v>1.509055854437761</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.519476771886502</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1189859510358815</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4908373929584755</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8379298765126038</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>7.429909594177985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.858522945200519</v>
+        <v>1.735229384224368</v>
       </c>
       <c r="C5">
-        <v>0.8937442186295357</v>
+        <v>0.3724318489400105</v>
       </c>
       <c r="D5">
-        <v>0.1534587513525878</v>
+        <v>0.4490889873105175</v>
       </c>
       <c r="E5">
-        <v>0.1282526844179657</v>
+        <v>0.1977180486806631</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6880918323215184</v>
+        <v>0.0008434730357803526</v>
       </c>
       <c r="H5">
-        <v>1.459079653785309</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.473430851850623</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.115032254729762</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4704367352482492</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8007412691627351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>7.175263207883063</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.844254598080369</v>
+        <v>1.723100769581208</v>
       </c>
       <c r="C6">
-        <v>0.8868000086681036</v>
+        <v>0.3695952193000664</v>
       </c>
       <c r="D6">
-        <v>0.1522985575575007</v>
+        <v>0.4469241587453894</v>
       </c>
       <c r="E6">
-        <v>0.1273651974593051</v>
+        <v>0.1966931042872204</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.68374609983222</v>
+        <v>0.0008440570389952387</v>
       </c>
       <c r="H6">
-        <v>1.450834025541496</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.465836485637183</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.114380886785618</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4670784730233493</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.794592174373463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>7.133192266059922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.943577740622572</v>
+        <v>1.807877703024445</v>
       </c>
       <c r="C7">
-        <v>0.9351643253869213</v>
+        <v>0.3894507135460117</v>
       </c>
       <c r="D7">
-        <v>0.1603808180087896</v>
+        <v>0.4620579940387586</v>
       </c>
       <c r="E7">
-        <v>0.1335559476210619</v>
+        <v>0.2038566809348339</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7140610856280603</v>
+        <v>0.0008400164854303671</v>
       </c>
       <c r="H7">
-        <v>1.508378231361974</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.518852248387461</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1189322772334691</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4905602530622346</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8374265424647049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>7.426460635314271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.390059584412086</v>
+        <v>2.198511997922537</v>
       </c>
       <c r="C8">
-        <v>1.153287473416299</v>
+        <v>0.4817456797580917</v>
       </c>
       <c r="D8">
-        <v>0.1968738425829741</v>
+        <v>0.5318155996214955</v>
       </c>
       <c r="E8">
-        <v>0.1617337284667428</v>
+        <v>0.2368381781160807</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8520435409899676</v>
+        <v>0.0008224711679868258</v>
       </c>
       <c r="H8">
-        <v>1.770921074309257</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.761175641152761</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1398590080348967</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5989917271235186</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.030794587881687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>8.756551593947677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.307700744100714</v>
+        <v>3.046091997811175</v>
       </c>
       <c r="C9">
-        <v>1.60515617730033</v>
+        <v>0.6861564783986012</v>
       </c>
       <c r="D9">
-        <v>0.2725684685043319</v>
+        <v>0.6829303664960946</v>
       </c>
       <c r="E9">
-        <v>0.2212139168685425</v>
+        <v>0.308165835842594</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.143045309849924</v>
+        <v>0.000788645214092815</v>
       </c>
       <c r="H9">
-        <v>2.327040504318717</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.276346884248042</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1850303505553796</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8354480580341317</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.431934074982195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>11.55201495868954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.022150992777824</v>
+        <v>3.745723088449608</v>
       </c>
       <c r="C10">
-        <v>1.96022384459161</v>
+        <v>0.8588353524211811</v>
       </c>
       <c r="D10">
-        <v>0.3320267158995733</v>
+        <v>0.8071135903834374</v>
       </c>
       <c r="E10">
-        <v>0.2687994476348479</v>
+        <v>0.3667361118238972</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.375357951777517</v>
+        <v>0.0007636090005307555</v>
       </c>
       <c r="H10">
-        <v>2.772612830942819</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.690509762149233</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2220932670577866</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.031746814577161</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.747319178627023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>13.79029597193056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.359959527030242</v>
+        <v>4.088872882516284</v>
       </c>
       <c r="C11">
-        <v>2.129095428835456</v>
+        <v>0.9447770032419101</v>
       </c>
       <c r="D11">
-        <v>0.3602763465818839</v>
+        <v>0.8677857359321877</v>
       </c>
       <c r="E11">
-        <v>0.2916555578845745</v>
+        <v>0.3953505863461686</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.486737273698765</v>
+        <v>0.0007520196973057366</v>
       </c>
       <c r="H11">
-        <v>2.986612704354485</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.889780980690276</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2402012872249628</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.12837640212642</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.897307897235422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>14.86946695569901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.490136485404264</v>
+        <v>4.223304291668853</v>
       </c>
       <c r="C12">
-        <v>2.194340998041071</v>
+        <v>0.9786653805377625</v>
       </c>
       <c r="D12">
-        <v>0.3711840866169354</v>
+        <v>0.89150828220329</v>
       </c>
       <c r="E12">
-        <v>0.3005222217760561</v>
+        <v>0.4065395161172773</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.529905558275374</v>
+        <v>0.0007475846953093746</v>
       </c>
       <c r="H12">
-        <v>3.069610839848536</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.967122451297527</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2472828964189944</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.166293385115964</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.955251226158595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>15.28919134311457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.461992709802018</v>
+        <v>4.194135298064793</v>
       </c>
       <c r="C13">
-        <v>2.180227134065831</v>
+        <v>0.9713017851882455</v>
       </c>
       <c r="D13">
-        <v>0.3688248867705539</v>
+        <v>0.8863632185217227</v>
       </c>
       <c r="E13">
-        <v>0.2986025371130125</v>
+        <v>0.4041127523786017</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.520561308321959</v>
+        <v>0.0007485422462322112</v>
       </c>
       <c r="H13">
-        <v>3.051642449142406</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.950376139245805</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2457469111350292</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.158063207927242</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.942717364763325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>15.19826084403832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.370621376696874</v>
+        <v>4.099836592841939</v>
       </c>
       <c r="C14">
-        <v>2.13443566529287</v>
+        <v>0.9475361856343909</v>
       </c>
       <c r="D14">
-        <v>0.3611692799181441</v>
+        <v>0.869721450000327</v>
       </c>
       <c r="E14">
-        <v>0.2923805412519798</v>
+        <v>0.3962635593793422</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.49026778297727</v>
+        <v>0.0007516558741671453</v>
       </c>
       <c r="H14">
-        <v>2.993399557147967</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.896104147743301</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2407790947589206</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.131467472069232</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.902050623465342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>14.90376082675408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.314961324656963</v>
+        <v>4.042691565476389</v>
       </c>
       <c r="C15">
-        <v>2.106564008724547</v>
+        <v>0.9331638110395488</v>
       </c>
       <c r="D15">
-        <v>0.3565086081215441</v>
+        <v>0.8596302060689709</v>
       </c>
       <c r="E15">
-        <v>0.288598184562467</v>
+        <v>0.3915040960899248</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.47184689167409</v>
+        <v>0.0007535564193188007</v>
       </c>
       <c r="H15">
-        <v>2.957990535404775</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.863116567348911</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2377669419011426</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.115358731771067</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.877297181391697</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14.72489060406849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.000365740135578</v>
+        <v>3.723870616348563</v>
       </c>
       <c r="C16">
-        <v>1.949355107224051</v>
+        <v>0.8533899204766158</v>
       </c>
       <c r="D16">
-        <v>0.3302077592713886</v>
+        <v>0.8032443015411275</v>
       </c>
       <c r="E16">
-        <v>0.2673331354078741</v>
+        <v>0.364911312010868</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.368207692168653</v>
+        <v>0.0007643609564505682</v>
       </c>
       <c r="H16">
-        <v>2.75888218474222</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.677731520406965</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2209385656645679</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.025600959891293</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.737665154746821</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>13.72117988522407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.810921913075504</v>
+        <v>3.535233930877098</v>
       </c>
       <c r="C17">
-        <v>1.854952047306085</v>
+        <v>0.8065214072206857</v>
       </c>
       <c r="D17">
-        <v>0.3144053401819491</v>
+        <v>0.7698169070345102</v>
       </c>
       <c r="E17">
-        <v>0.2546220156434913</v>
+        <v>0.349146548135792</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.306200526200115</v>
+        <v>0.0007709267358610994</v>
       </c>
       <c r="H17">
-        <v>2.639850905716401</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.566995930817299</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.210963081696832</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9725869617683003</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.653811185327243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>13.12251234030907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.703134785062389</v>
+        <v>3.42901115121191</v>
       </c>
       <c r="C18">
-        <v>1.801328831734907</v>
+        <v>0.7802387980169954</v>
       </c>
       <c r="D18">
-        <v>0.3054267190534574</v>
+        <v>0.7509732512331198</v>
       </c>
       <c r="E18">
-        <v>0.2474220976757593</v>
+        <v>0.3402594805825601</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.271060097378921</v>
+        <v>0.0007746856287708164</v>
       </c>
       <c r="H18">
-        <v>2.572428151487003</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.504304315446035</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2053396349477481</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9427651209371533</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.606179576467156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>12.78374662865158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.666830476947382</v>
+        <v>3.39341284398273</v>
       </c>
       <c r="C19">
-        <v>1.783282254282597</v>
+        <v>0.7714484809167459</v>
       </c>
       <c r="D19">
-        <v>0.3024046633842659</v>
+        <v>0.7446550071959166</v>
       </c>
       <c r="E19">
-        <v>0.2450023921723243</v>
+        <v>0.3372796088181431</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.259247502966304</v>
+        <v>0.0007759557740317919</v>
       </c>
       <c r="H19">
-        <v>2.549769524728646</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.483241078812853</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.203454053917298</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.932775955984809</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.590149485592804</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>12.66994240784291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.830964065350486</v>
+        <v>3.555073220532734</v>
       </c>
       <c r="C20">
-        <v>1.864929965137776</v>
+        <v>0.8114389873584855</v>
       </c>
       <c r="D20">
-        <v>0.316075848103452</v>
+        <v>0.7733347405585675</v>
       </c>
       <c r="E20">
-        <v>0.2559633792557605</v>
+        <v>0.3508056128718451</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.312745873290339</v>
+        <v>0.000770229729241837</v>
       </c>
       <c r="H20">
-        <v>2.652412031782006</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.578678244751231</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2120128812994011</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9781592680664914</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.66267420741211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>13.18565000987124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.397394404446345</v>
+        <v>4.127404120402048</v>
       </c>
       <c r="C21">
-        <v>2.147848356090208</v>
+        <v>0.9544775995238695</v>
       </c>
       <c r="D21">
-        <v>0.3634118780760787</v>
+        <v>0.8745878994188843</v>
       </c>
       <c r="E21">
-        <v>0.2942020131864567</v>
+        <v>0.3985588201416661</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.499137285233076</v>
+        <v>0.0007507427487019154</v>
       </c>
       <c r="H21">
-        <v>3.01045068991715</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.911991225230381</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2422317504882301</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.139240780253303</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.913962465786611</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>14.9899409593142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.780995854005027</v>
+        <v>4.528234697379844</v>
       </c>
       <c r="C22">
-        <v>2.340464052322659</v>
+        <v>1.055990274402717</v>
       </c>
       <c r="D22">
-        <v>0.3955969349857611</v>
+        <v>0.9452175578430797</v>
       </c>
       <c r="E22">
-        <v>0.3204495559745197</v>
+        <v>0.4318746783793443</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.626838744735039</v>
+        <v>0.0007377246266704339</v>
       </c>
       <c r="H22">
-        <v>3.256085853670584</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.140994817007197</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2633206577144307</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.252427849235914</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.085001483972079</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>16.2351979498668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.57487429905558</v>
+        <v>4.311483579516732</v>
       </c>
       <c r="C23">
-        <v>2.236863015429492</v>
+        <v>1.000961133470724</v>
       </c>
       <c r="D23">
-        <v>0.378290621343325</v>
+        <v>0.9070543363910701</v>
       </c>
       <c r="E23">
-        <v>0.3063112779461719</v>
+        <v>0.4138722999390509</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.558077770371</v>
+        <v>0.0007447055929872445</v>
       </c>
       <c r="H23">
-        <v>3.123792451308816</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.017627372663185</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2519242871833995</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.191183467000016</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.993011624965405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>15.56360825399469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.821899529238408</v>
+        <v>3.546097006378488</v>
       </c>
       <c r="C24">
-        <v>1.860416940221285</v>
+        <v>0.809213705279376</v>
       </c>
       <c r="D24">
-        <v>0.3153202827748061</v>
+        <v>0.7717431729635109</v>
       </c>
       <c r="E24">
-        <v>0.2553566154936959</v>
+        <v>0.3500550055657783</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.309785151068837</v>
+        <v>0.000770544894113414</v>
       </c>
       <c r="H24">
-        <v>2.646730025449415</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.573393667093058</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2115379225449772</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9756380026014568</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.6586654525574</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>13.15708876416844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.053579515479385</v>
+        <v>2.80559759174713</v>
       </c>
       <c r="C25">
-        <v>1.479547335337656</v>
+        <v>0.6276078325747108</v>
       </c>
       <c r="D25">
-        <v>0.2515240675892585</v>
+        <v>0.6401130650139351</v>
       </c>
       <c r="E25">
-        <v>0.2045480836641573</v>
+        <v>0.2879654928958004</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.061565959313512</v>
+        <v>0.000797783058077594</v>
       </c>
       <c r="H25">
-        <v>2.171065786678184</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.131638110967899</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1722443968225704</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7681995750027255</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.320382950061415</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>10.76930423533466</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.30904617740805</v>
+        <v>2.873235681474625</v>
       </c>
       <c r="C2">
-        <v>0.508090225648516</v>
+        <v>0.4728756009592701</v>
       </c>
       <c r="D2">
-        <v>0.5515502532174708</v>
+        <v>0.2020214921475372</v>
       </c>
       <c r="E2">
-        <v>0.2461601993895002</v>
+        <v>0.03110852952051602</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008177730425834895</v>
+        <v>0.0007872373950768231</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3827559870542885</v>
       </c>
       <c r="J2">
-        <v>0.1457675785947217</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6297392388815837</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3317264178526642</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.6526875974086188</v>
       </c>
       <c r="O2">
-        <v>9.127448634255416</v>
+        <v>2.360565779199817</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.994012404600937</v>
+        <v>2.495355759277572</v>
       </c>
       <c r="C3">
-        <v>0.4332677177120843</v>
+        <v>0.4178476457879583</v>
       </c>
       <c r="D3">
-        <v>0.4952961365642068</v>
+        <v>0.1749514898189943</v>
       </c>
       <c r="E3">
-        <v>0.2195785256917873</v>
+        <v>0.03083685888424803</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008314555612423703</v>
+        <v>0.0007922590411140804</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3710719214600644</v>
       </c>
       <c r="J3">
-        <v>0.1289127695721817</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5421808145639417</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2913351205332759</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.6826017021790634</v>
       </c>
       <c r="O3">
-        <v>8.064281051711646</v>
+        <v>2.181943490297726</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.808877865163026</v>
+        <v>2.264344774104075</v>
       </c>
       <c r="C4">
-        <v>0.3896853462132697</v>
+        <v>0.3840893935969234</v>
       </c>
       <c r="D4">
-        <v>0.4622365619081847</v>
+        <v>0.1585195376710686</v>
       </c>
       <c r="E4">
-        <v>0.2039411845463377</v>
+        <v>0.03072671389605297</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008399693797753378</v>
+        <v>0.0007954422757656752</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3649409549048741</v>
       </c>
       <c r="J4">
-        <v>0.1189859510358815</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4908373929584755</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2668600635294638</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.7020447083225605</v>
       </c>
       <c r="O4">
-        <v>7.429909594177985</v>
+        <v>2.077648712987326</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.735229384224368</v>
+        <v>2.170413332208398</v>
       </c>
       <c r="C5">
-        <v>0.3724318489400105</v>
+        <v>0.3703334173799533</v>
       </c>
       <c r="D5">
-        <v>0.4490889873105175</v>
+        <v>0.1518650106735748</v>
       </c>
       <c r="E5">
-        <v>0.1977180486806631</v>
+        <v>0.03069552958970689</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008434730357803526</v>
+        <v>0.0007967651608299497</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3626896260839345</v>
       </c>
       <c r="J5">
-        <v>0.115032254729762</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4704367352482492</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2569598483565443</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7102297719754773</v>
       </c>
       <c r="O5">
-        <v>7.175263207883063</v>
+        <v>2.036405202136081</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.723100769581208</v>
+        <v>2.154827318483626</v>
       </c>
       <c r="C6">
-        <v>0.3695952193000664</v>
+        <v>0.3680491127182393</v>
       </c>
       <c r="D6">
-        <v>0.4469241587453894</v>
+        <v>0.150762378655358</v>
       </c>
       <c r="E6">
-        <v>0.1966931042872204</v>
+        <v>0.03069116345367906</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008440570389952387</v>
+        <v>0.0007969863925643009</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3623302897903216</v>
       </c>
       <c r="J6">
-        <v>0.114380886785618</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4670784730233493</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2553201366408615</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.711604470803028</v>
       </c>
       <c r="O6">
-        <v>7.133192266059922</v>
+        <v>2.029630010862348</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.807877703024445</v>
+        <v>2.263077201051033</v>
       </c>
       <c r="C7">
-        <v>0.3894507135460117</v>
+        <v>0.3839038808340263</v>
       </c>
       <c r="D7">
-        <v>0.4620579940387586</v>
+        <v>0.1584296314437239</v>
       </c>
       <c r="E7">
-        <v>0.2038566809348339</v>
+        <v>0.03072623856364665</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008400164854303671</v>
+        <v>0.0007954600118849394</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3649096117145127</v>
       </c>
       <c r="J7">
-        <v>0.1189322772334691</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4905602530622346</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2667262584351846</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7021540455919535</v>
       </c>
       <c r="O7">
-        <v>7.426460635314271</v>
+        <v>2.077087519255826</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.198511997922537</v>
+        <v>2.742704423836415</v>
       </c>
       <c r="C8">
-        <v>0.4817456797580917</v>
+        <v>0.4538918225919417</v>
       </c>
       <c r="D8">
-        <v>0.5318155996214955</v>
+        <v>0.192644814061353</v>
       </c>
       <c r="E8">
-        <v>0.2368381781160807</v>
+        <v>0.03100275913334727</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008224711679868258</v>
+        <v>0.000788948468797727</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3785014017154253</v>
       </c>
       <c r="J8">
-        <v>0.1398590080348967</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5989917271235186</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3177268431960698</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.6627734094132478</v>
       </c>
       <c r="O8">
-        <v>8.756551593947677</v>
+        <v>2.29780098361195</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.046091997811175</v>
+        <v>3.693542542482305</v>
       </c>
       <c r="C9">
-        <v>0.6861564783986012</v>
+        <v>0.5916941569348921</v>
       </c>
       <c r="D9">
-        <v>0.6829303664960946</v>
+        <v>0.2615298442279794</v>
       </c>
       <c r="E9">
-        <v>0.308165835842594</v>
+        <v>0.03202076859175129</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000788645214092815</v>
+        <v>0.0007769449947469617</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.4141637826251738</v>
       </c>
       <c r="J9">
-        <v>0.1850303505553796</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8354480580341317</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.420722366460609</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.594494287065146</v>
       </c>
       <c r="O9">
-        <v>11.55201495868954</v>
+        <v>2.777922448427574</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.745723088449608</v>
+        <v>4.40189144391644</v>
       </c>
       <c r="C10">
-        <v>0.8588353524211811</v>
+        <v>0.6937767588817962</v>
       </c>
       <c r="D10">
-        <v>0.8071135903834374</v>
+        <v>0.3136648086028657</v>
       </c>
       <c r="E10">
-        <v>0.3667361118238972</v>
+        <v>0.03309747017685538</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007636090005307555</v>
+        <v>0.0007685521667642112</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.4469514887109298</v>
       </c>
       <c r="J10">
-        <v>0.2220932670577866</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.031746814577161</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4988188461427967</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5503943852242017</v>
       </c>
       <c r="O10">
-        <v>13.79029597193056</v>
+        <v>3.166430560974248</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.088872882516284</v>
+        <v>4.727113789422901</v>
       </c>
       <c r="C11">
-        <v>0.9447770032419101</v>
+        <v>0.7405225509180298</v>
       </c>
       <c r="D11">
-        <v>0.8677857359321877</v>
+        <v>0.3378188860001927</v>
       </c>
       <c r="E11">
-        <v>0.3953505863461686</v>
+        <v>0.03366793518221378</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007520196973057366</v>
+        <v>0.0007648168352342742</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.463562958294844</v>
       </c>
       <c r="J11">
-        <v>0.2402012872249628</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.12837640212642</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.535021074113601</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5317969589226337</v>
       </c>
       <c r="O11">
-        <v>14.86946695569901</v>
+        <v>3.352622199682457</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.223304291668853</v>
+        <v>4.850774064550819</v>
       </c>
       <c r="C12">
-        <v>0.9786653805377625</v>
+        <v>0.7582794625002407</v>
       </c>
       <c r="D12">
-        <v>0.89150828220329</v>
+        <v>0.347037854680309</v>
       </c>
       <c r="E12">
-        <v>0.4065395161172773</v>
+        <v>0.0338963885853083</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007475846953093746</v>
+        <v>0.0007634133705250948</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4701214052379896</v>
       </c>
       <c r="J12">
-        <v>0.2472828964189944</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.166293385115964</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5488403989535158</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.5249786884307781</v>
       </c>
       <c r="O12">
-        <v>15.28919134311457</v>
+        <v>3.424641652362766</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.194135298064793</v>
+        <v>4.824117847481148</v>
       </c>
       <c r="C13">
-        <v>0.9713017851882455</v>
+        <v>0.7544525476488388</v>
       </c>
       <c r="D13">
-        <v>0.8863632185217227</v>
+        <v>0.3450490087486031</v>
       </c>
       <c r="E13">
-        <v>0.4041127523786017</v>
+        <v>0.03384662030152086</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007485422462322112</v>
+        <v>0.0007637151558725815</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.4686965984937927</v>
       </c>
       <c r="J13">
-        <v>0.2457469111350292</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.158063207927242</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5458590316217595</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.5264369251903176</v>
       </c>
       <c r="O13">
-        <v>15.19826084403832</v>
+        <v>3.409061119727369</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.099836592841939</v>
+        <v>4.73727680403897</v>
       </c>
       <c r="C14">
-        <v>0.9475361856343909</v>
+        <v>0.7419822475912099</v>
       </c>
       <c r="D14">
-        <v>0.869721450000327</v>
+        <v>0.3385758294238315</v>
       </c>
       <c r="E14">
-        <v>0.3962635593793422</v>
+        <v>0.03368647607077335</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007516558741671453</v>
+        <v>0.0007647011554927018</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.4640970080505369</v>
       </c>
       <c r="J14">
-        <v>0.2407790947589206</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.131467472069232</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5361557077748245</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.5312314406766774</v>
       </c>
       <c r="O14">
-        <v>14.90376082675408</v>
+        <v>3.358516043470672</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.042691565476389</v>
+        <v>4.684152363678322</v>
       </c>
       <c r="C15">
-        <v>0.9331638110395488</v>
+        <v>0.7343513749982833</v>
       </c>
       <c r="D15">
-        <v>0.8596302060689709</v>
+        <v>0.3346205345970077</v>
       </c>
       <c r="E15">
-        <v>0.3915040960899248</v>
+        <v>0.03359002766473651</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007535564193188007</v>
+        <v>0.0007653065179582165</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.4613152848340647</v>
       </c>
       <c r="J15">
-        <v>0.2377669419011426</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.115358731771067</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5302269192700209</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.5341978384050776</v>
       </c>
       <c r="O15">
-        <v>14.72489060406849</v>
+        <v>3.327757487249073</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.723870616348563</v>
+        <v>4.380703888369567</v>
       </c>
       <c r="C16">
-        <v>0.8533899204766158</v>
+        <v>0.6907289251638247</v>
       </c>
       <c r="D16">
-        <v>0.8032443015411275</v>
+        <v>0.3120958756401251</v>
       </c>
       <c r="E16">
-        <v>0.364911312010868</v>
+        <v>0.03306188180965641</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007643609564505682</v>
+        <v>0.0007687978702209271</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.445902038531564</v>
       </c>
       <c r="J16">
-        <v>0.2209385656645679</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.025600959891293</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4964676423528829</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.5516403707405217</v>
       </c>
       <c r="O16">
-        <v>13.72117988522407</v>
+        <v>3.154465565330753</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.535233930877098</v>
+        <v>4.195365778493624</v>
       </c>
       <c r="C17">
-        <v>0.8065214072206857</v>
+        <v>0.664054338604501</v>
       </c>
       <c r="D17">
-        <v>0.7698169070345102</v>
+        <v>0.2983962639817292</v>
       </c>
       <c r="E17">
-        <v>0.349146548135792</v>
+        <v>0.03275911438608503</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007709267358610994</v>
+        <v>0.0007709602727407621</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.4368974838819639</v>
       </c>
       <c r="J17">
-        <v>0.210963081696832</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9725869617683003</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.475939507560156</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.5627251094559824</v>
       </c>
       <c r="O17">
-        <v>13.12251234030907</v>
+        <v>3.050683442610449</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.42901115121191</v>
+        <v>4.089040808856737</v>
       </c>
       <c r="C18">
-        <v>0.7802387980169954</v>
+        <v>0.6487400836036272</v>
       </c>
       <c r="D18">
-        <v>0.7509732512331198</v>
+        <v>0.2905571917671494</v>
       </c>
       <c r="E18">
-        <v>0.3402594805825601</v>
+        <v>0.03259251018186582</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007746856287708164</v>
+        <v>0.0007722118599166602</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.4318763938469843</v>
       </c>
       <c r="J18">
-        <v>0.2053396349477481</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9427651209371533</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4641950206707008</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.5692376598454558</v>
       </c>
       <c r="O18">
-        <v>12.78374662865158</v>
+        <v>2.991870986714162</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.39341284398273</v>
+        <v>4.053086315314147</v>
       </c>
       <c r="C19">
-        <v>0.7714484809167459</v>
+        <v>0.6435594752539373</v>
       </c>
       <c r="D19">
-        <v>0.7446550071959166</v>
+        <v>0.2879097125555035</v>
       </c>
       <c r="E19">
-        <v>0.3372796088181431</v>
+        <v>0.03253737147675473</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007759557740317919</v>
+        <v>0.0007726369957214975</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.4302027888043796</v>
       </c>
       <c r="J19">
-        <v>0.203454053917298</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.932775955984809</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4602289343183514</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.5714658117062399</v>
       </c>
       <c r="O19">
-        <v>12.66994240784291</v>
+        <v>2.972104845463519</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.555073220532734</v>
+        <v>4.215066182764417</v>
       </c>
       <c r="C20">
-        <v>0.8114389873584855</v>
+        <v>0.6668908924434334</v>
       </c>
       <c r="D20">
-        <v>0.7733347405585675</v>
+        <v>0.2998503452640051</v>
       </c>
       <c r="E20">
-        <v>0.3508056128718451</v>
+        <v>0.0327905583521737</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000770229729241837</v>
+        <v>0.0007707292768523419</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.4378395038421914</v>
       </c>
       <c r="J20">
-        <v>0.2120128812994011</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9781592680664914</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4781181760795761</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5615308557336078</v>
       </c>
       <c r="O20">
-        <v>13.18565000987124</v>
+        <v>3.061639056742592</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.127404120402048</v>
+        <v>4.762769764886968</v>
       </c>
       <c r="C21">
-        <v>0.9544775995238695</v>
+        <v>0.7456434831691183</v>
       </c>
       <c r="D21">
-        <v>0.8745878994188843</v>
+        <v>0.3404751166749236</v>
       </c>
       <c r="E21">
-        <v>0.3985588201416661</v>
+        <v>0.03373317001715925</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007507427487019154</v>
+        <v>0.0007644112514859689</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.4654405419899774</v>
       </c>
       <c r="J21">
-        <v>0.2422317504882301</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.139240780253303</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5390027044809642</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5298169767894834</v>
       </c>
       <c r="O21">
-        <v>14.9899409593142</v>
+        <v>3.37332001876905</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.528234697379844</v>
+        <v>5.123713017002558</v>
       </c>
       <c r="C22">
-        <v>1.055990274402717</v>
+        <v>0.7974410616307921</v>
       </c>
       <c r="D22">
-        <v>0.9452175578430797</v>
+        <v>0.3674523929359594</v>
       </c>
       <c r="E22">
-        <v>0.4318746783793443</v>
+        <v>0.03442210829502912</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007377246266704339</v>
+        <v>0.0007603458673282232</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.4850545111077835</v>
       </c>
       <c r="J22">
-        <v>0.2633206577144307</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.252427849235914</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5794442752059723</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.510403933678262</v>
       </c>
       <c r="O22">
-        <v>16.2351979498668</v>
+        <v>3.585919632254445</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.311483579516732</v>
+        <v>4.930770696801289</v>
       </c>
       <c r="C23">
-        <v>1.000961133470724</v>
+        <v>0.7697617613773104</v>
       </c>
       <c r="D23">
-        <v>0.9070543363910701</v>
+        <v>0.3530117500800145</v>
       </c>
       <c r="E23">
-        <v>0.4138722999390509</v>
+        <v>0.03404744873562748</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007447055929872445</v>
+        <v>0.0007625101014696074</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.4744335199984704</v>
       </c>
       <c r="J23">
-        <v>0.2519242871833995</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.191183467000016</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5577957232491428</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5206400118435468</v>
       </c>
       <c r="O23">
-        <v>15.56360825399469</v>
+        <v>3.471583001119257</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.546097006378488</v>
+        <v>4.20615892427287</v>
       </c>
       <c r="C24">
-        <v>0.809213705279376</v>
+        <v>0.6656084208651691</v>
       </c>
       <c r="D24">
-        <v>0.7717431729635109</v>
+        <v>0.299192840518387</v>
       </c>
       <c r="E24">
-        <v>0.3500550055657783</v>
+        <v>0.0327763193583781</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.000770544894113414</v>
+        <v>0.000770833683850114</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.4374131332966087</v>
       </c>
       <c r="J24">
-        <v>0.2115379225449772</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9756380026014568</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4771330221994816</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5620703434585792</v>
       </c>
       <c r="O24">
-        <v>13.15708876416844</v>
+        <v>3.056683377238755</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.80559759174713</v>
+        <v>3.434870001150159</v>
       </c>
       <c r="C25">
-        <v>0.6276078325747108</v>
+        <v>0.5543063857152504</v>
       </c>
       <c r="D25">
-        <v>0.6401130650139351</v>
+        <v>0.2426601976771394</v>
       </c>
       <c r="E25">
-        <v>0.2879654928958004</v>
+        <v>0.03169059384260109</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000797783058077594</v>
+        <v>0.0007801143139380578</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.40344370575977</v>
       </c>
       <c r="J25">
-        <v>0.1722443968225704</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7681995750027255</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3924800762044498</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.6119476074041685</v>
       </c>
       <c r="O25">
-        <v>10.76930423533466</v>
+        <v>2.642290065747233</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.873235681474625</v>
+        <v>1.261954552005932</v>
       </c>
       <c r="C2">
-        <v>0.4728756009592701</v>
+        <v>0.174196266374679</v>
       </c>
       <c r="D2">
-        <v>0.2020214921475372</v>
+        <v>0.07859522710324995</v>
       </c>
       <c r="E2">
-        <v>0.03110852952051602</v>
+        <v>0.07376806398248448</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007872373950768231</v>
+        <v>0.00243886799639053</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3827559870542885</v>
+        <v>0.7385653484599146</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3317264178526642</v>
+        <v>0.235314674209647</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6526875974086188</v>
+        <v>1.180148526259536</v>
       </c>
       <c r="O2">
-        <v>2.360565779199817</v>
+        <v>3.226305097233421</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.495355759277572</v>
+        <v>1.154455080356456</v>
       </c>
       <c r="C3">
-        <v>0.4178476457879583</v>
+        <v>0.1566964042896473</v>
       </c>
       <c r="D3">
-        <v>0.1749514898189943</v>
+        <v>0.07127836230610285</v>
       </c>
       <c r="E3">
-        <v>0.03083685888424803</v>
+        <v>0.07423817962832402</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007922590411140804</v>
+        <v>0.002442229259409349</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3710719214600644</v>
+        <v>0.742670473319933</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2913351205332759</v>
+        <v>0.2255750777908361</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6826017021790634</v>
+        <v>1.19292675491992</v>
       </c>
       <c r="O3">
-        <v>2.181943490297726</v>
+        <v>3.210457245889131</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.264344774104075</v>
+        <v>1.088719809577412</v>
       </c>
       <c r="C4">
-        <v>0.3840893935969234</v>
+        <v>0.1458786228336351</v>
       </c>
       <c r="D4">
-        <v>0.1585195376710686</v>
+        <v>0.06682204113344881</v>
       </c>
       <c r="E4">
-        <v>0.03072671389605297</v>
+        <v>0.07456088428630991</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007954422757656752</v>
+        <v>0.002444404158545892</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3649409549048741</v>
+        <v>0.7456702100432402</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2668600635294638</v>
+        <v>0.2197199117820077</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7020447083225605</v>
+        <v>1.201268713229638</v>
       </c>
       <c r="O4">
-        <v>2.077648712987326</v>
+        <v>3.202968835800164</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.170413332208398</v>
+        <v>1.062001216078272</v>
       </c>
       <c r="C5">
-        <v>0.3703334173799533</v>
+        <v>0.1414520916558217</v>
       </c>
       <c r="D5">
-        <v>0.1518650106735748</v>
+        <v>0.06501512982498525</v>
       </c>
       <c r="E5">
-        <v>0.03069552958970689</v>
+        <v>0.07470095547736477</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007967651608299497</v>
+        <v>0.002445318463659457</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3626896260839345</v>
+        <v>0.7470129307300404</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2569598483565443</v>
+        <v>0.2173653471737396</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7102297719754773</v>
+        <v>1.204792880396539</v>
       </c>
       <c r="O5">
-        <v>2.036405202136081</v>
+        <v>3.200480047049552</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.154827318483626</v>
+        <v>1.057568821012069</v>
       </c>
       <c r="C6">
-        <v>0.3680491127182393</v>
+        <v>0.1407159736427275</v>
       </c>
       <c r="D6">
-        <v>0.150762378655358</v>
+        <v>0.06471564048375456</v>
       </c>
       <c r="E6">
-        <v>0.03069116345367906</v>
+        <v>0.07472473169665861</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007969863925643009</v>
+        <v>0.002445471977745662</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3623302897903216</v>
+        <v>0.7472431490194396</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2553201366408615</v>
+        <v>0.2169762748467576</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.711604470803028</v>
+        <v>1.20538560072335</v>
       </c>
       <c r="O6">
-        <v>2.029630010862348</v>
+        <v>3.200100747266873</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.263077201051033</v>
+        <v>1.088359192042162</v>
       </c>
       <c r="C7">
-        <v>0.3839038808340263</v>
+        <v>0.1458189986223886</v>
       </c>
       <c r="D7">
-        <v>0.1584296314437239</v>
+        <v>0.06679763580442</v>
       </c>
       <c r="E7">
-        <v>0.03072623856364665</v>
+        <v>0.07456273864498897</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007954600118849394</v>
+        <v>0.002444416375825673</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3649096117145127</v>
+        <v>0.7456878315913968</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2667262584351846</v>
+        <v>0.219688029860265</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7021540455919535</v>
+        <v>1.201315736254433</v>
       </c>
       <c r="O7">
-        <v>2.077087519255826</v>
+        <v>3.202932993745321</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.742704423836415</v>
+        <v>1.224833418626702</v>
       </c>
       <c r="C8">
-        <v>0.4538918225919417</v>
+        <v>0.1681774820262092</v>
       </c>
       <c r="D8">
-        <v>0.192644814061353</v>
+        <v>0.07606481752209504</v>
       </c>
       <c r="E8">
-        <v>0.03100275913334727</v>
+        <v>0.07392309466344216</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.000788948468797727</v>
+        <v>0.002440003959349593</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3785014017154253</v>
+        <v>0.7398812285058014</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3177268431960698</v>
+        <v>0.2319305375421692</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6627734094132478</v>
+        <v>1.184451504636463</v>
       </c>
       <c r="O8">
-        <v>2.29780098361195</v>
+        <v>3.22037474737229</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.693542542482305</v>
+        <v>1.494560939655912</v>
       </c>
       <c r="C9">
-        <v>0.5916941569348921</v>
+        <v>0.2114420842765696</v>
       </c>
       <c r="D9">
-        <v>0.2615298442279794</v>
+        <v>0.09452836721554547</v>
       </c>
       <c r="E9">
-        <v>0.03202076859175129</v>
+        <v>0.07293879798887559</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007769449947469617</v>
+        <v>0.002432228578048645</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4141637826251738</v>
+        <v>0.732305584107344</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.420722366460609</v>
+        <v>0.2569297870633562</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.594494287065146</v>
+        <v>1.155316413127103</v>
       </c>
       <c r="O9">
-        <v>2.777922448427574</v>
+        <v>3.272422403133305</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.40189144391644</v>
+        <v>1.693979431654043</v>
       </c>
       <c r="C10">
-        <v>0.6937767588817962</v>
+        <v>0.2428741305002688</v>
       </c>
       <c r="D10">
-        <v>0.3136648086028657</v>
+        <v>0.1082761172732631</v>
       </c>
       <c r="E10">
-        <v>0.03309747017685538</v>
+        <v>0.07238010914301185</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007685521667642112</v>
+        <v>0.002427045350800751</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4469514887109298</v>
+        <v>0.7290764498606137</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4988188461427967</v>
+        <v>0.2759036320956483</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5503943852242017</v>
+        <v>1.136309294854577</v>
       </c>
       <c r="O10">
-        <v>3.166430560974248</v>
+        <v>3.321623982593735</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.727113789422901</v>
+        <v>1.78496605701946</v>
       </c>
       <c r="C11">
-        <v>0.7405225509180298</v>
+        <v>0.2570964597386194</v>
       </c>
       <c r="D11">
-        <v>0.3378188860001927</v>
+        <v>0.114571209610375</v>
       </c>
       <c r="E11">
-        <v>0.03366793518221378</v>
+        <v>0.07216163318665103</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007648168352342742</v>
+        <v>0.002424801135704844</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.463562958294844</v>
+        <v>0.7281177684424094</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.535021074113601</v>
+        <v>0.2846677490309588</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5317969589226337</v>
+        <v>1.128183187027616</v>
       </c>
       <c r="O11">
-        <v>3.352622199682457</v>
+        <v>3.34640608923911</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.850774064550819</v>
+        <v>1.819458259749467</v>
       </c>
       <c r="C12">
-        <v>0.7582794625002407</v>
+        <v>0.2624710531641483</v>
       </c>
       <c r="D12">
-        <v>0.347037854680309</v>
+        <v>0.1169609857892482</v>
       </c>
       <c r="E12">
-        <v>0.0338963885853083</v>
+        <v>0.0720840294532632</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007634133705250948</v>
+        <v>0.002423967564766307</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4701214052379896</v>
+        <v>0.7278283459446513</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5488403989535158</v>
+        <v>0.2880055945948214</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5249786884307781</v>
+        <v>1.125180886372206</v>
       </c>
       <c r="O12">
-        <v>3.424641652362766</v>
+        <v>3.356136882399426</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.824117847481148</v>
+        <v>1.812028097755444</v>
       </c>
       <c r="C13">
-        <v>0.7544525476488388</v>
+        <v>0.261314033729434</v>
       </c>
       <c r="D13">
-        <v>0.3450490087486031</v>
+        <v>0.116446038950059</v>
       </c>
       <c r="E13">
-        <v>0.03384662030152086</v>
+        <v>0.07210051474469914</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007637151558725815</v>
+        <v>0.00242414636704906</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4686965984937927</v>
+        <v>0.7278874007367335</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5458590316217595</v>
+        <v>0.2872858824720907</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5264369251903176</v>
+        <v>1.125824154249436</v>
       </c>
       <c r="O13">
-        <v>3.409061119727369</v>
+        <v>3.35402575861491</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.73727680403897</v>
+        <v>1.787803006346849</v>
       </c>
       <c r="C14">
-        <v>0.7419822475912099</v>
+        <v>0.2575388538403161</v>
       </c>
       <c r="D14">
-        <v>0.3385758294238315</v>
+        <v>0.1147676982267143</v>
       </c>
       <c r="E14">
-        <v>0.03368647607077335</v>
+        <v>0.07215514590942185</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007647011554927018</v>
+        <v>0.002424732231634197</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4640970080505369</v>
+        <v>0.7280924808987805</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5361557077748245</v>
+        <v>0.2849419737068359</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5312314406766774</v>
+        <v>1.127934684888999</v>
       </c>
       <c r="O14">
-        <v>3.358516043470672</v>
+        <v>3.347199699127998</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.684152363678322</v>
+        <v>1.772969288865227</v>
       </c>
       <c r="C15">
-        <v>0.7343513749982833</v>
+        <v>0.2552249986276536</v>
       </c>
       <c r="D15">
-        <v>0.3346205345970077</v>
+        <v>0.1137404436230725</v>
       </c>
       <c r="E15">
-        <v>0.03359002766473651</v>
+        <v>0.07218927689461196</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007653065179582165</v>
+        <v>0.002425093206388058</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4613152848340647</v>
+        <v>0.7282276914699963</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5302269192700209</v>
+        <v>0.2835087436721864</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5341978384050776</v>
+        <v>1.129237199240926</v>
       </c>
       <c r="O15">
-        <v>3.327757487249073</v>
+        <v>3.343063681526132</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.380703888369567</v>
+        <v>1.688038566149771</v>
       </c>
       <c r="C16">
-        <v>0.6907289251638247</v>
+        <v>0.2419431222930086</v>
       </c>
       <c r="D16">
-        <v>0.3120958756401251</v>
+        <v>0.107865550166423</v>
       </c>
       <c r="E16">
-        <v>0.03306188180965641</v>
+        <v>0.07239510478607514</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007687978702209271</v>
+        <v>0.002427194295920709</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.445902038531564</v>
+        <v>0.7291493897799484</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4964676423528829</v>
+        <v>0.2753335461476638</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5516403707405217</v>
+        <v>1.1368508302156</v>
       </c>
       <c r="O16">
-        <v>3.154465565330753</v>
+        <v>3.320052813340681</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.195365778493624</v>
+        <v>1.636004580616088</v>
       </c>
       <c r="C17">
-        <v>0.664054338604501</v>
+        <v>0.2337754971831032</v>
       </c>
       <c r="D17">
-        <v>0.2983962639817292</v>
+        <v>0.1042720675800979</v>
       </c>
       <c r="E17">
-        <v>0.03275911438608503</v>
+        <v>0.07253050947403317</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007709602727407621</v>
+        <v>0.002428512301110337</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4368974838819639</v>
+        <v>0.7298456795739767</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.475939507560156</v>
+        <v>0.2703523208324583</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5627251094559824</v>
+        <v>1.141654853552893</v>
       </c>
       <c r="O17">
-        <v>3.050683442610449</v>
+        <v>3.306551972324371</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.089040808856737</v>
+        <v>1.606101514100374</v>
       </c>
       <c r="C18">
-        <v>0.6487400836036272</v>
+        <v>0.2290705242634772</v>
       </c>
       <c r="D18">
-        <v>0.2905571917671494</v>
+        <v>0.1022090643090792</v>
       </c>
       <c r="E18">
-        <v>0.03259251018186582</v>
+        <v>0.07261174860445685</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007722118599166602</v>
+        <v>0.002429281085597146</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4318763938469843</v>
+        <v>0.7302941818712299</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4641950206707008</v>
+        <v>0.2674997554498617</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5692376598454558</v>
+        <v>1.144466972415728</v>
       </c>
       <c r="O18">
-        <v>2.991870986714162</v>
+        <v>3.299012477543357</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.053086315314147</v>
+        <v>1.595981270094171</v>
       </c>
       <c r="C19">
-        <v>0.6435594752539373</v>
+        <v>0.2274762735312663</v>
       </c>
       <c r="D19">
-        <v>0.2879097125555035</v>
+        <v>0.1015112307683665</v>
       </c>
       <c r="E19">
-        <v>0.03253737147675473</v>
+        <v>0.07263983155498899</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007726369957214975</v>
+        <v>0.002429543223554661</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4302027888043796</v>
+        <v>0.7304542765379054</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4602289343183514</v>
+        <v>0.2665360744014293</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5714658117062399</v>
+        <v>1.145427516810173</v>
       </c>
       <c r="O19">
-        <v>2.972104845463519</v>
+        <v>3.29649848385634</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.215066182764417</v>
+        <v>1.64154105693359</v>
       </c>
       <c r="C20">
-        <v>0.6668908924434334</v>
+        <v>0.2346456979128959</v>
       </c>
       <c r="D20">
-        <v>0.2998503452640051</v>
+        <v>0.1046541988129945</v>
       </c>
       <c r="E20">
-        <v>0.0327905583521737</v>
+        <v>0.07251574789184012</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007707292768523419</v>
+        <v>0.002428370890070884</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4378395038421914</v>
+        <v>0.7297665872911097</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4781181760795761</v>
+        <v>0.2708812869409627</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5615308557336078</v>
+        <v>1.141138388274229</v>
       </c>
       <c r="O20">
-        <v>3.061639056742592</v>
+        <v>3.307965778297586</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.762769764886968</v>
+        <v>1.79491749440092</v>
       </c>
       <c r="C21">
-        <v>0.7456434831691183</v>
+        <v>0.2586480177828321</v>
       </c>
       <c r="D21">
-        <v>0.3404751166749236</v>
+        <v>0.115260505468072</v>
       </c>
       <c r="E21">
-        <v>0.03373317001715925</v>
+        <v>0.07213896024185829</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007644112514859689</v>
+        <v>0.002424559708342655</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4654405419899774</v>
+        <v>0.7280302442831541</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5390027044809642</v>
+        <v>0.2856299193926759</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5298169767894834</v>
+        <v>1.127312738170552</v>
       </c>
       <c r="O21">
-        <v>3.37332001876905</v>
+        <v>3.349195268751316</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.123713017002558</v>
+        <v>1.895376087069508</v>
       </c>
       <c r="C22">
-        <v>0.7974410616307921</v>
+        <v>0.2742701985748965</v>
       </c>
       <c r="D22">
-        <v>0.3674523929359594</v>
+        <v>0.1222271059957762</v>
       </c>
       <c r="E22">
-        <v>0.03442210829502912</v>
+        <v>0.07192259909741949</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007603458673282232</v>
+        <v>0.00242216364916248</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4850545111077835</v>
+        <v>0.7273246042322512</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5794442752059723</v>
+        <v>0.2953801110308945</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.510403933678262</v>
+        <v>1.118713365220408</v>
       </c>
       <c r="O22">
-        <v>3.585919632254445</v>
+        <v>3.378160469920601</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.930770696801289</v>
+        <v>1.841739907642761</v>
       </c>
       <c r="C23">
-        <v>0.7697617613773104</v>
+        <v>0.2659383106092719</v>
       </c>
       <c r="D23">
-        <v>0.3530117500800145</v>
+        <v>0.1185057056499517</v>
       </c>
       <c r="E23">
-        <v>0.03404744873562748</v>
+        <v>0.07203534055683036</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007625101014696074</v>
+        <v>0.002423433825729162</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4744335199984704</v>
+        <v>0.7276618720770429</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5577957232491428</v>
+        <v>0.2901660952444161</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5206400118435468</v>
+        <v>1.123263053196077</v>
       </c>
       <c r="O23">
-        <v>3.471583001119257</v>
+        <v>3.362516022288048</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.20615892427287</v>
+        <v>1.639037978621673</v>
       </c>
       <c r="C24">
-        <v>0.6656084208651691</v>
+        <v>0.234252309114737</v>
       </c>
       <c r="D24">
-        <v>0.299192840518387</v>
+        <v>0.1044814281370634</v>
       </c>
       <c r="E24">
-        <v>0.0327763193583781</v>
+        <v>0.0725224110338587</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.000770833683850114</v>
+        <v>0.002428434787660271</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4374131332966087</v>
+        <v>0.7298021947978839</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4771330221994816</v>
+        <v>0.2706421064535505</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5620703434585792</v>
+        <v>1.141371725786875</v>
       </c>
       <c r="O24">
-        <v>3.056683377238755</v>
+        <v>3.307325904185177</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.434870001150159</v>
+        <v>1.421370773247077</v>
       </c>
       <c r="C25">
-        <v>0.5543063857152504</v>
+        <v>0.1998000626224723</v>
       </c>
       <c r="D25">
-        <v>0.2426601976771394</v>
+        <v>0.08950181423456627</v>
       </c>
       <c r="E25">
-        <v>0.03169059384260109</v>
+        <v>0.07317618218307054</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007801143139380578</v>
+        <v>0.002434238670099946</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.40344370575977</v>
+        <v>0.73394561666219</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3924800762044498</v>
+        <v>0.2500604186415103</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6119476074041685</v>
+        <v>1.162776998640787</v>
       </c>
       <c r="O25">
-        <v>2.642290065747233</v>
+        <v>3.25642312388814</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.261954552005932</v>
+        <v>2.873235681474512</v>
       </c>
       <c r="C2">
-        <v>0.174196266374679</v>
+        <v>0.4728756009591564</v>
       </c>
       <c r="D2">
-        <v>0.07859522710324995</v>
+        <v>0.2020214921474519</v>
       </c>
       <c r="E2">
-        <v>0.07376806398248448</v>
+        <v>0.03110852952051246</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.00243886799639053</v>
+        <v>0.0007872373951049008</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7385653484599146</v>
+        <v>0.3827559870542956</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.235314674209647</v>
+        <v>0.3317264178526784</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.180148526259536</v>
+        <v>0.6526875974086046</v>
       </c>
       <c r="O2">
-        <v>3.226305097233421</v>
+        <v>2.360565779199902</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.154455080356456</v>
+        <v>2.495355759277743</v>
       </c>
       <c r="C3">
-        <v>0.1566964042896473</v>
+        <v>0.4178476457878446</v>
       </c>
       <c r="D3">
-        <v>0.07127836230610285</v>
+        <v>0.1749514898187954</v>
       </c>
       <c r="E3">
-        <v>0.07423817962832402</v>
+        <v>0.03083685888426224</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002442229259409349</v>
+        <v>0.0007922590411128882</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.742670473319933</v>
+        <v>0.3710719214600573</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2255750777908361</v>
+        <v>0.2913351205331907</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.19292675491992</v>
+        <v>0.6826017021791202</v>
       </c>
       <c r="O3">
-        <v>3.210457245889131</v>
+        <v>2.181943490297726</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.088719809577412</v>
+        <v>2.264344774104302</v>
       </c>
       <c r="C4">
-        <v>0.1458786228336351</v>
+        <v>0.3840893935968097</v>
       </c>
       <c r="D4">
-        <v>0.06682204113344881</v>
+        <v>0.158519537671225</v>
       </c>
       <c r="E4">
-        <v>0.07456088428630991</v>
+        <v>0.03072671389603521</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002444404158545892</v>
+        <v>0.0007954422757674523</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7456702100432402</v>
+        <v>0.3649409549048706</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2197199117820077</v>
+        <v>0.266860063529478</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.201268713229638</v>
+        <v>0.7020447083225569</v>
       </c>
       <c r="O4">
-        <v>3.202968835800164</v>
+        <v>2.077648712987354</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.062001216078272</v>
+        <v>2.170413332208284</v>
       </c>
       <c r="C5">
-        <v>0.1414520916558217</v>
+        <v>0.370333417379868</v>
       </c>
       <c r="D5">
-        <v>0.06501512982498525</v>
+        <v>0.1518650106737454</v>
       </c>
       <c r="E5">
-        <v>0.07470095547736477</v>
+        <v>0.03069552958973532</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002445318463659457</v>
+        <v>0.0007967651608009657</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7470129307300404</v>
+        <v>0.3626896260839523</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2173653471737396</v>
+        <v>0.2569598483565869</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.204792880396539</v>
+        <v>0.7102297719754844</v>
       </c>
       <c r="O5">
-        <v>3.200480047049552</v>
+        <v>2.036405202136137</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.057568821012069</v>
+        <v>2.154827318483683</v>
       </c>
       <c r="C6">
-        <v>0.1407159736427275</v>
+        <v>0.3680491127180687</v>
       </c>
       <c r="D6">
-        <v>0.06471564048375456</v>
+        <v>0.1507623786554575</v>
       </c>
       <c r="E6">
-        <v>0.07472473169665861</v>
+        <v>0.03069116345365863</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002445471977745662</v>
+        <v>0.0007969863925074108</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7472431490194396</v>
+        <v>0.3623302897903287</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2169762748467576</v>
+        <v>0.2553201366408757</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.20538560072335</v>
+        <v>0.711604470803028</v>
       </c>
       <c r="O6">
-        <v>3.200100747266873</v>
+        <v>2.029630010862462</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.088359192042162</v>
+        <v>2.263077201051033</v>
       </c>
       <c r="C7">
-        <v>0.1458189986223886</v>
+        <v>0.383903880833941</v>
       </c>
       <c r="D7">
-        <v>0.06679763580442</v>
+        <v>0.1584296314438092</v>
       </c>
       <c r="E7">
-        <v>0.07456273864498897</v>
+        <v>0.03072623856364487</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002444416375825673</v>
+        <v>0.0007954600118846658</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7456878315913968</v>
+        <v>0.3649096117145127</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.219688029860265</v>
+        <v>0.2667262584352557</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.201315736254433</v>
+        <v>0.7021540455919535</v>
       </c>
       <c r="O7">
-        <v>3.202932993745321</v>
+        <v>2.077087519255826</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.224833418626702</v>
+        <v>2.742704423836301</v>
       </c>
       <c r="C8">
-        <v>0.1681774820262092</v>
+        <v>0.453891822592027</v>
       </c>
       <c r="D8">
-        <v>0.07606481752209504</v>
+        <v>0.1926448140614667</v>
       </c>
       <c r="E8">
-        <v>0.07392309466344216</v>
+        <v>0.03100275913337214</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002440003959349593</v>
+        <v>0.0007889484688251008</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7398812285058014</v>
+        <v>0.3785014017154538</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2319305375421692</v>
+        <v>0.3177268431960414</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.184451504636463</v>
+        <v>0.6627734094131661</v>
       </c>
       <c r="O8">
-        <v>3.22037474737229</v>
+        <v>2.297800983612035</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.494560939655912</v>
+        <v>3.693542542482419</v>
       </c>
       <c r="C9">
-        <v>0.2114420842765696</v>
+        <v>0.5916941569351195</v>
       </c>
       <c r="D9">
-        <v>0.09452836721554547</v>
+        <v>0.2615298442280789</v>
       </c>
       <c r="E9">
-        <v>0.07293879798887559</v>
+        <v>0.03202076859173708</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002432228578048645</v>
+        <v>0.0007769449947460993</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.732305584107344</v>
+        <v>0.4141637826251738</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2569297870633562</v>
+        <v>0.4207223664607085</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.155316413127103</v>
+        <v>0.5944942870651317</v>
       </c>
       <c r="O9">
-        <v>3.272422403133305</v>
+        <v>2.777922448427518</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.693979431654043</v>
+        <v>4.401891443916497</v>
       </c>
       <c r="C10">
-        <v>0.2428741305002688</v>
+        <v>0.6937767588820236</v>
       </c>
       <c r="D10">
-        <v>0.1082761172732631</v>
+        <v>0.3136648086029794</v>
       </c>
       <c r="E10">
-        <v>0.07238010914301185</v>
+        <v>0.03309747017685538</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002427045350800751</v>
+        <v>0.0007685521667641442</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7290764498606137</v>
+        <v>0.446951488710944</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2759036320956483</v>
+        <v>0.4988188461428535</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.136309294854577</v>
+        <v>0.5503943852242017</v>
       </c>
       <c r="O10">
-        <v>3.321623982593735</v>
+        <v>3.166430560974362</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.78496605701946</v>
+        <v>4.727113789422958</v>
       </c>
       <c r="C11">
-        <v>0.2570964597386194</v>
+        <v>0.7405225509179445</v>
       </c>
       <c r="D11">
-        <v>0.114571209610375</v>
+        <v>0.3378188860000364</v>
       </c>
       <c r="E11">
-        <v>0.07216163318665103</v>
+        <v>0.03366793518221911</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002424801135704844</v>
+        <v>0.0007648168352053817</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7281177684424094</v>
+        <v>0.4635629582948582</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2846677490309588</v>
+        <v>0.5350210741136152</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.128183187027616</v>
+        <v>0.5317969589226763</v>
       </c>
       <c r="O11">
-        <v>3.34640608923911</v>
+        <v>3.352622199682457</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.819458259749467</v>
+        <v>4.850774064550819</v>
       </c>
       <c r="C12">
-        <v>0.2624710531641483</v>
+        <v>0.7582794625002691</v>
       </c>
       <c r="D12">
-        <v>0.1169609857892482</v>
+        <v>0.347037854680309</v>
       </c>
       <c r="E12">
-        <v>0.0720840294532632</v>
+        <v>0.03389638858531718</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002423967564766307</v>
+        <v>0.0007634133705876038</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7278283459446513</v>
+        <v>0.4701214052380109</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2880055945948214</v>
+        <v>0.5488403989535442</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.125180886372206</v>
+        <v>0.5249786884307497</v>
       </c>
       <c r="O12">
-        <v>3.356136882399426</v>
+        <v>3.424641652362766</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.812028097755444</v>
+        <v>4.824117847481148</v>
       </c>
       <c r="C13">
-        <v>0.261314033729434</v>
+        <v>0.754452547648583</v>
       </c>
       <c r="D13">
-        <v>0.116446038950059</v>
+        <v>0.3450490087488021</v>
       </c>
       <c r="E13">
-        <v>0.07210051474469914</v>
+        <v>0.03384662030156171</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00242414636704906</v>
+        <v>0.000763715155834177</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7278874007367335</v>
+        <v>0.4686965984937999</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2872858824720907</v>
+        <v>0.5458590316216743</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.125824154249436</v>
+        <v>0.5264369251902892</v>
       </c>
       <c r="O13">
-        <v>3.35402575861491</v>
+        <v>3.409061119727312</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.787803006346849</v>
+        <v>4.737276804039141</v>
       </c>
       <c r="C14">
-        <v>0.2575388538403161</v>
+        <v>0.7419822475914657</v>
       </c>
       <c r="D14">
-        <v>0.1147676982267143</v>
+        <v>0.3385758294236325</v>
       </c>
       <c r="E14">
-        <v>0.07215514590942185</v>
+        <v>0.03368647607077335</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002424732231634197</v>
+        <v>0.000764701155528107</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7280924808987805</v>
+        <v>0.4640970080505511</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2849419737068359</v>
+        <v>0.5361557077748245</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.127934684888999</v>
+        <v>0.5312314406767342</v>
       </c>
       <c r="O14">
-        <v>3.347199699127998</v>
+        <v>3.358516043470729</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.772969288865227</v>
+        <v>4.684152363678322</v>
       </c>
       <c r="C15">
-        <v>0.2552249986276536</v>
+        <v>0.7343513749981412</v>
       </c>
       <c r="D15">
-        <v>0.1137404436230725</v>
+        <v>0.3346205345970503</v>
       </c>
       <c r="E15">
-        <v>0.07218927689461196</v>
+        <v>0.03359002766477559</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002425093206388058</v>
+        <v>0.000765306517930203</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7282276914699963</v>
+        <v>0.4613152848340718</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2835087436721864</v>
+        <v>0.5302269192699924</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.129237199240926</v>
+        <v>0.5341978384051203</v>
       </c>
       <c r="O15">
-        <v>3.343063681526132</v>
+        <v>3.327757487249073</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.688038566149771</v>
+        <v>4.38070388836951</v>
       </c>
       <c r="C16">
-        <v>0.2419431222930086</v>
+        <v>0.6907289251636257</v>
       </c>
       <c r="D16">
-        <v>0.107865550166423</v>
+        <v>0.312095875639983</v>
       </c>
       <c r="E16">
-        <v>0.07239510478607514</v>
+        <v>0.03306188180965286</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002427194295920709</v>
+        <v>0.0007687978702271839</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7291493897799484</v>
+        <v>0.4459020385315569</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2753335461476638</v>
+        <v>0.4964676423530108</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.1368508302156</v>
+        <v>0.5516403707405075</v>
       </c>
       <c r="O16">
-        <v>3.320052813340681</v>
+        <v>3.154465565330696</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.636004580616088</v>
+        <v>4.19536577849351</v>
       </c>
       <c r="C17">
-        <v>0.2337754971831032</v>
+        <v>0.6640543386043873</v>
       </c>
       <c r="D17">
-        <v>0.1042720675800979</v>
+        <v>0.2983962639818429</v>
       </c>
       <c r="E17">
-        <v>0.07253050947403317</v>
+        <v>0.03275911438608858</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002428512301110337</v>
+        <v>0.0007709602727414825</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7298456795739767</v>
+        <v>0.4368974838819639</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2703523208324583</v>
+        <v>0.4759395075600992</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.141654853552893</v>
+        <v>0.5627251094559327</v>
       </c>
       <c r="O17">
-        <v>3.306551972324371</v>
+        <v>3.050683442610477</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.606101514100374</v>
+        <v>4.089040808856623</v>
       </c>
       <c r="C18">
-        <v>0.2290705242634772</v>
+        <v>0.6487400836037409</v>
       </c>
       <c r="D18">
-        <v>0.1022090643090792</v>
+        <v>0.2905571917671352</v>
       </c>
       <c r="E18">
-        <v>0.07261174860445685</v>
+        <v>0.03259251018184983</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002429281085597146</v>
+        <v>0.0007722118599160414</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7302941818712299</v>
+        <v>0.4318763938469985</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2674997554498617</v>
+        <v>0.4641950206707008</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.144466972415728</v>
+        <v>0.5692376598454558</v>
       </c>
       <c r="O18">
-        <v>3.299012477543357</v>
+        <v>2.991870986714218</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.595981270094171</v>
+        <v>4.053086315314033</v>
       </c>
       <c r="C19">
-        <v>0.2274762735312663</v>
+        <v>0.6435594752539373</v>
       </c>
       <c r="D19">
-        <v>0.1015112307683665</v>
+        <v>0.2879097125555035</v>
       </c>
       <c r="E19">
-        <v>0.07263983155498899</v>
+        <v>0.03253737147674052</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002429543223554661</v>
+        <v>0.0007726369956639158</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7304542765379054</v>
+        <v>0.4302027888043938</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2665360744014293</v>
+        <v>0.4602289343184083</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.145427516810173</v>
+        <v>0.5714658117062967</v>
       </c>
       <c r="O19">
-        <v>3.29649848385634</v>
+        <v>2.972104845463519</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.64154105693359</v>
+        <v>4.215066182764531</v>
       </c>
       <c r="C20">
-        <v>0.2346456979128959</v>
+        <v>0.6668908924434334</v>
       </c>
       <c r="D20">
-        <v>0.1046541988129945</v>
+        <v>0.2998503452640051</v>
       </c>
       <c r="E20">
-        <v>0.07251574789184012</v>
+        <v>0.03279055835218969</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002428370890070884</v>
+        <v>0.0007707292768574831</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7297665872911097</v>
+        <v>0.4378395038421701</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2708812869409627</v>
+        <v>0.4781181760796471</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.141138388274229</v>
+        <v>0.5615308557335936</v>
       </c>
       <c r="O20">
-        <v>3.307965778297586</v>
+        <v>3.061639056742592</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.79491749440092</v>
+        <v>4.762769764886912</v>
       </c>
       <c r="C21">
-        <v>0.2586480177828321</v>
+        <v>0.7456434831690046</v>
       </c>
       <c r="D21">
-        <v>0.115260505468072</v>
+        <v>0.3404751166749236</v>
       </c>
       <c r="E21">
-        <v>0.07213896024185829</v>
+        <v>0.03373317001715748</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002424559708342655</v>
+        <v>0.0007644112514856173</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7280302442831541</v>
+        <v>0.4654405419899845</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2856299193926759</v>
+        <v>0.5390027044810211</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.127312738170552</v>
+        <v>0.5298169767894763</v>
       </c>
       <c r="O21">
-        <v>3.349195268751316</v>
+        <v>3.373320018768993</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.895376087069508</v>
+        <v>5.123713017002387</v>
       </c>
       <c r="C22">
-        <v>0.2742701985748965</v>
+        <v>0.7974410616310763</v>
       </c>
       <c r="D22">
-        <v>0.1222271059957762</v>
+        <v>0.3674523929358458</v>
       </c>
       <c r="E22">
-        <v>0.07192259909741949</v>
+        <v>0.03442210829502912</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00242216364916248</v>
+        <v>0.0007603458672343137</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7273246042322512</v>
+        <v>0.4850545111077906</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2953801110308945</v>
+        <v>0.579444275205887</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.118713365220408</v>
+        <v>0.5104039336783188</v>
       </c>
       <c r="O22">
-        <v>3.378160469920601</v>
+        <v>3.585919632254502</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.841739907642761</v>
+        <v>4.930770696801403</v>
       </c>
       <c r="C23">
-        <v>0.2659383106092719</v>
+        <v>0.7697617613775378</v>
       </c>
       <c r="D23">
-        <v>0.1185057056499517</v>
+        <v>0.3530117500800287</v>
       </c>
       <c r="E23">
-        <v>0.07203534055683036</v>
+        <v>0.0340474487356186</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002423433825729162</v>
+        <v>0.0007625101014318795</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7276618720770429</v>
+        <v>0.4744335199984562</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2901660952444161</v>
+        <v>0.5577957232491713</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.123263053196077</v>
+        <v>0.5206400118435397</v>
       </c>
       <c r="O23">
-        <v>3.362516022288048</v>
+        <v>3.471583001119257</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.639037978621673</v>
+        <v>4.206158924272927</v>
       </c>
       <c r="C24">
-        <v>0.234252309114737</v>
+        <v>0.6656084208652544</v>
       </c>
       <c r="D24">
-        <v>0.1044814281370634</v>
+        <v>0.2991928405185718</v>
       </c>
       <c r="E24">
-        <v>0.0725224110338587</v>
+        <v>0.03277631935839231</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002428434787660271</v>
+        <v>0.0007708336838498033</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7298021947978839</v>
+        <v>0.4374131332966016</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2706421064535505</v>
+        <v>0.4771330221994816</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.141371725786875</v>
+        <v>0.5620703434586503</v>
       </c>
       <c r="O24">
-        <v>3.307325904185177</v>
+        <v>3.056683377238727</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.421370773247077</v>
+        <v>3.434870001150159</v>
       </c>
       <c r="C25">
-        <v>0.1998000626224723</v>
+        <v>0.5543063857154777</v>
       </c>
       <c r="D25">
-        <v>0.08950181423456627</v>
+        <v>0.242660197677381</v>
       </c>
       <c r="E25">
-        <v>0.07317618218307054</v>
+        <v>0.03169059384259754</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002434238670099946</v>
+        <v>0.0007801143139981512</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.73394561666219</v>
+        <v>0.4034437057597984</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2500604186415103</v>
+        <v>0.3924800762044924</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.162776998640787</v>
+        <v>0.6119476074041685</v>
       </c>
       <c r="O25">
-        <v>3.25642312388814</v>
+        <v>2.642290065747147</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.873235681474512</v>
+        <v>0.9882933020726057</v>
       </c>
       <c r="C2">
-        <v>0.4728756009591564</v>
+        <v>0.2055756903920241</v>
       </c>
       <c r="D2">
-        <v>0.2020214921474519</v>
+        <v>0.5737418003464825</v>
       </c>
       <c r="E2">
-        <v>0.03110852952051246</v>
+        <v>0.2631174753083556</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007872373951049008</v>
+        <v>0.4487424085954004</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00197093651702307</v>
       </c>
       <c r="I2">
-        <v>0.3827559870542956</v>
+        <v>0.002279004581653421</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3823269115753263</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3415135444980066</v>
       </c>
       <c r="L2">
-        <v>0.3317264178526784</v>
+        <v>0.1605224699850112</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.137192444396305</v>
       </c>
       <c r="N2">
-        <v>0.6526875974086046</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.360565779199902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.698454741862122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.495355759277743</v>
+        <v>0.8616072690701913</v>
       </c>
       <c r="C3">
-        <v>0.4178476457878446</v>
+        <v>0.1809921500972962</v>
       </c>
       <c r="D3">
-        <v>0.1749514898187954</v>
+        <v>0.515494519484065</v>
       </c>
       <c r="E3">
-        <v>0.03083685888426224</v>
+        <v>0.2341786458894433</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007922590411128882</v>
+        <v>0.4368138851236125</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.003468267349957421</v>
       </c>
       <c r="I3">
-        <v>0.3710719214600573</v>
+        <v>0.003376878441103681</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3811324624323973</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3446807001638206</v>
       </c>
       <c r="L3">
-        <v>0.2913351205331907</v>
+        <v>0.141198568477364</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.993036113516979</v>
       </c>
       <c r="N3">
-        <v>0.6826017021791202</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.181943490297726</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.670370834314099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.264344774104302</v>
+        <v>0.7835518427036448</v>
       </c>
       <c r="C4">
-        <v>0.3840893935968097</v>
+        <v>0.1660810700037416</v>
       </c>
       <c r="D4">
-        <v>0.158519537671225</v>
+        <v>0.4798846196088675</v>
       </c>
       <c r="E4">
-        <v>0.03072671389603521</v>
+        <v>0.2164178514229249</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007954422757674523</v>
+        <v>0.4298453023172684</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.004641513642790196</v>
       </c>
       <c r="I4">
-        <v>0.3649409549048706</v>
+        <v>0.004240682497288262</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3806458887093811</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3468418463747902</v>
       </c>
       <c r="L4">
-        <v>0.266860063529478</v>
+        <v>0.1293342101841048</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9045467600444397</v>
       </c>
       <c r="N4">
-        <v>0.7020447083225569</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.077648712987354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.654390041274326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.170413332208284</v>
+        <v>0.7513386936164466</v>
       </c>
       <c r="C5">
-        <v>0.370333417379868</v>
+        <v>0.1605251086886028</v>
       </c>
       <c r="D5">
-        <v>0.1518650106737454</v>
+        <v>0.4654008704247303</v>
       </c>
       <c r="E5">
-        <v>0.03069552958973532</v>
+        <v>0.2091751432529421</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007967651608009657</v>
+        <v>0.4265941646429283</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.005182796985709393</v>
       </c>
       <c r="I5">
-        <v>0.3626896260839523</v>
+        <v>0.004715524079506039</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3802479880428109</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3474055477520963</v>
       </c>
       <c r="L5">
-        <v>0.2569598483565869</v>
+        <v>0.1244935343316413</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8688908734777385</v>
       </c>
       <c r="N5">
-        <v>0.7102297719754844</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.036405202136137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.646585603150925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.154827318483683</v>
+        <v>0.7455763127987609</v>
       </c>
       <c r="C6">
-        <v>0.3680491127180687</v>
+        <v>0.1601916182410434</v>
       </c>
       <c r="D6">
-        <v>0.1507623786554575</v>
+        <v>0.4629897640358251</v>
       </c>
       <c r="E6">
-        <v>0.03069116345365863</v>
+        <v>0.2079664897891575</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007969863925074108</v>
+        <v>0.4254529049399878</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.005278709918356606</v>
       </c>
       <c r="I6">
-        <v>0.3623302897903287</v>
+        <v>0.004898682508970076</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3798680505874188</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3470511648216359</v>
       </c>
       <c r="L6">
-        <v>0.2553201366408757</v>
+        <v>0.123684449399839</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8634665713610161</v>
       </c>
       <c r="N6">
-        <v>0.711604470803028</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.029630010862462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.643357313782232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.263077201051033</v>
+        <v>0.7819966329145132</v>
       </c>
       <c r="C7">
-        <v>0.383903880833941</v>
+        <v>0.1676107563831124</v>
       </c>
       <c r="D7">
-        <v>0.1584296314438092</v>
+        <v>0.4796674784427921</v>
       </c>
       <c r="E7">
-        <v>0.03072623856364487</v>
+        <v>0.2163041175595239</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007954600118846658</v>
+        <v>0.428146282214442</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.004654578785087793</v>
       </c>
       <c r="I7">
-        <v>0.3649096117145127</v>
+        <v>0.004508355043091328</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3797752820324618</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3456195273827056</v>
       </c>
       <c r="L7">
-        <v>0.2667262584352557</v>
+        <v>0.1292549048246769</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9054258619318603</v>
       </c>
       <c r="N7">
-        <v>0.7021540455919535</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.077087519255826</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.64896401470466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.742704423836301</v>
+        <v>0.943166842935824</v>
       </c>
       <c r="C8">
-        <v>0.453891822592027</v>
+        <v>0.1992009663774041</v>
       </c>
       <c r="D8">
-        <v>0.1926448140614667</v>
+        <v>0.5535955538531709</v>
       </c>
       <c r="E8">
-        <v>0.03100275913337214</v>
+        <v>0.2531158292578297</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007889484688251008</v>
+        <v>0.4423723528679417</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.002438325233729888</v>
       </c>
       <c r="I8">
-        <v>0.3785014017154538</v>
+        <v>0.002930332630222132</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.38072793935455</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3409473746394411</v>
       </c>
       <c r="L8">
-        <v>0.3177268431960414</v>
+        <v>0.1538398668319445</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.089293883504268</v>
       </c>
       <c r="N8">
-        <v>0.6627734094131661</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.297800983612035</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.681502379261275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.693542542482419</v>
+        <v>1.259275522581845</v>
       </c>
       <c r="C9">
-        <v>0.5916941569351195</v>
+        <v>0.2598700916166763</v>
       </c>
       <c r="D9">
-        <v>0.2615298442280789</v>
+        <v>0.7000527443605336</v>
       </c>
       <c r="E9">
-        <v>0.03202076859173708</v>
+        <v>0.3254957959643434</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007769449947460993</v>
+        <v>0.4762552694137554</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0002238975449750935</v>
       </c>
       <c r="I9">
-        <v>0.4141637826251738</v>
+        <v>0.001040248961276191</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3861772201119322</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3357621204454091</v>
       </c>
       <c r="L9">
-        <v>0.4207223664607085</v>
+        <v>0.2021662939693485</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.447932458895934</v>
       </c>
       <c r="N9">
-        <v>0.5944942870651317</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.777922448427518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.765436430520737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.401891443916497</v>
+        <v>1.490601921126796</v>
       </c>
       <c r="C10">
-        <v>0.6937767588820236</v>
+        <v>0.3050176687941359</v>
       </c>
       <c r="D10">
-        <v>0.3136648086029794</v>
+        <v>0.7924894620621501</v>
       </c>
       <c r="E10">
-        <v>0.03309747017685538</v>
+        <v>0.3657099941939279</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007685521667641442</v>
+        <v>0.494390253923882</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0002405619722143371</v>
       </c>
       <c r="I10">
-        <v>0.446951488710944</v>
+        <v>0.0008925784494238087</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3870654654943451</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3285984423581461</v>
       </c>
       <c r="L10">
-        <v>0.4988188461428535</v>
+        <v>0.2252678128179753</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.711450411131864</v>
       </c>
       <c r="N10">
-        <v>0.5503943852242017</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>3.166430560974362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.806211381678878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.727113789422958</v>
+        <v>1.599211361215936</v>
       </c>
       <c r="C11">
-        <v>0.7405225509179445</v>
+        <v>0.3155936299118878</v>
       </c>
       <c r="D11">
-        <v>0.3378188860000364</v>
+        <v>0.6970772592698324</v>
       </c>
       <c r="E11">
-        <v>0.03366793518221911</v>
+        <v>0.2777700900926376</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007648168352053817</v>
+        <v>0.4327659812966971</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01878712537036265</v>
       </c>
       <c r="I11">
-        <v>0.4635629582948582</v>
+        <v>0.001446339135784847</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3522526010846718</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2911810740576151</v>
       </c>
       <c r="L11">
-        <v>0.5350210741136152</v>
+        <v>0.1406013768364431</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.820494103965871</v>
       </c>
       <c r="N11">
-        <v>0.5317969589226763</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>3.352622199682457</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.602854610266064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.850774064550819</v>
+        <v>1.644246185452346</v>
       </c>
       <c r="C12">
-        <v>0.7582794625002691</v>
+        <v>0.3121711155102673</v>
       </c>
       <c r="D12">
-        <v>0.347037854680309</v>
+        <v>0.6027546161588191</v>
       </c>
       <c r="E12">
-        <v>0.03389638858531718</v>
+        <v>0.2063715131154993</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007634133705876038</v>
+        <v>0.3823948317018306</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05742629673331123</v>
       </c>
       <c r="I12">
-        <v>0.4701214052380109</v>
+        <v>0.001452331713589494</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3252389325820459</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2650673299088773</v>
       </c>
       <c r="L12">
-        <v>0.5488403989535442</v>
+        <v>0.08324489736654783</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.854355642512786</v>
       </c>
       <c r="N12">
-        <v>0.5249786884307497</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>3.424641652362766</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.439562160006361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.824117847481148</v>
+        <v>1.640751519477561</v>
       </c>
       <c r="C13">
-        <v>0.754452547648583</v>
+        <v>0.3003655118311315</v>
       </c>
       <c r="D13">
-        <v>0.3450490087488021</v>
+        <v>0.5043097356165731</v>
       </c>
       <c r="E13">
-        <v>0.03384662030156171</v>
+        <v>0.1438780750869526</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000763715155834177</v>
+        <v>0.3351289553216645</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131530880856815</v>
       </c>
       <c r="I13">
-        <v>0.4686965984937999</v>
+        <v>0.001388640434348609</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3012439261704003</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2440952869956359</v>
       </c>
       <c r="L13">
-        <v>0.5458590316216743</v>
+        <v>0.04366603248199752</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.834163955046222</v>
       </c>
       <c r="N13">
-        <v>0.5264369251902892</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>3.409061119727312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.289081914303011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.737276804039141</v>
+        <v>1.615959035856463</v>
       </c>
       <c r="C14">
-        <v>0.7419822475914657</v>
+        <v>0.2888614580704427</v>
       </c>
       <c r="D14">
-        <v>0.3385758294236325</v>
+        <v>0.4349590100463274</v>
       </c>
       <c r="E14">
-        <v>0.03368647607077335</v>
+        <v>0.1060437674133574</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000764701155528107</v>
+        <v>0.3037258413205706</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625146530742825</v>
       </c>
       <c r="I14">
-        <v>0.4640970080505511</v>
+        <v>0.001412261442614415</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2858965156644118</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2318391252869958</v>
       </c>
       <c r="L14">
-        <v>0.5361557077748245</v>
+        <v>0.02670372933042486</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.796034435325595</v>
       </c>
       <c r="N14">
-        <v>0.5312314406767342</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>3.358516043470729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.19030542952747</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.684152363678322</v>
+        <v>1.599023617773781</v>
       </c>
       <c r="C15">
-        <v>0.7343513749981412</v>
+        <v>0.2849496767886706</v>
       </c>
       <c r="D15">
-        <v>0.3346205345970503</v>
+        <v>0.4166120910060727</v>
       </c>
       <c r="E15">
-        <v>0.03359002766477559</v>
+        <v>0.09735150080361521</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000765306517930203</v>
+        <v>0.2959625645401971</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1750380205631785</v>
       </c>
       <c r="I15">
-        <v>0.4613152848340718</v>
+        <v>0.001529010038890277</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2824224756194624</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2294005675554338</v>
       </c>
       <c r="L15">
-        <v>0.5302269192699924</v>
+        <v>0.02393178827076436</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.775844588784821</v>
       </c>
       <c r="N15">
-        <v>0.5341978384051203</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>3.327757487249073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.166536415281669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.38070388836951</v>
+        <v>1.499054912384366</v>
       </c>
       <c r="C16">
-        <v>0.6907289251636257</v>
+        <v>0.2690875728538913</v>
       </c>
       <c r="D16">
-        <v>0.312095875639983</v>
+        <v>0.3994680934997348</v>
       </c>
       <c r="E16">
-        <v>0.03306188180965286</v>
+        <v>0.09467588158188533</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007687978702271839</v>
+        <v>0.29713706940516</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1624086826103905</v>
       </c>
       <c r="I16">
-        <v>0.4459020385315569</v>
+        <v>0.001694933088068673</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2863859619827736</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.23584777089747</v>
       </c>
       <c r="L16">
-        <v>0.4964676423530108</v>
+        <v>0.02344458604721567</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.667336426208664</v>
       </c>
       <c r="N16">
-        <v>0.5516403707405075</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>3.154465565330696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.177129532010554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.19536577849351</v>
+        <v>1.435684920172889</v>
       </c>
       <c r="C17">
-        <v>0.6640543386043873</v>
+        <v>0.2631039990596662</v>
       </c>
       <c r="D17">
-        <v>0.2983962639818429</v>
+        <v>0.4222004478690735</v>
       </c>
       <c r="E17">
-        <v>0.03275911438608858</v>
+        <v>0.1113764379553182</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007709602727414825</v>
+        <v>0.3143755776097734</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1247097758558482</v>
       </c>
       <c r="I17">
-        <v>0.4368974838819639</v>
+        <v>0.001848125277867041</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2974669286499676</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.247134447127074</v>
       </c>
       <c r="L17">
-        <v>0.4759395075600992</v>
+        <v>0.03014973873136029</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.604593333170527</v>
       </c>
       <c r="N17">
-        <v>0.5627251094559327</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>3.050683442610477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.236762793965127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.089040808856623</v>
+        <v>1.397575768056527</v>
       </c>
       <c r="C18">
-        <v>0.6487400836037409</v>
+        <v>0.2635144472781121</v>
       </c>
       <c r="D18">
-        <v>0.2905571917671352</v>
+        <v>0.4850742962991603</v>
       </c>
       <c r="E18">
-        <v>0.03259251018184983</v>
+        <v>0.1524340046863024</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007722118599160414</v>
+        <v>0.3500275934643682</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07186135607490485</v>
       </c>
       <c r="I18">
-        <v>0.4318763938469985</v>
+        <v>0.001658688549508014</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3171711807713677</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2656490751225054</v>
       </c>
       <c r="L18">
-        <v>0.4641950206707008</v>
+        <v>0.05315386595715665</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.572616318386451</v>
       </c>
       <c r="N18">
-        <v>0.5692376598454558</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.991870986714218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.353548890584278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.053086315314033</v>
+        <v>1.380389472930091</v>
       </c>
       <c r="C19">
-        <v>0.6435594752539373</v>
+        <v>0.2721393636510498</v>
       </c>
       <c r="D19">
-        <v>0.2879097125555035</v>
+        <v>0.5811123963108855</v>
       </c>
       <c r="E19">
-        <v>0.03253737147674052</v>
+        <v>0.2190645829249291</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007726369956639158</v>
+        <v>0.398252547416611</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02647117300086421</v>
       </c>
       <c r="I19">
-        <v>0.4302027888043938</v>
+        <v>0.001739566779980883</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3423314889600775</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2888018469522855</v>
       </c>
       <c r="L19">
-        <v>0.4602289343184083</v>
+        <v>0.1017464476579448</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.57028775051964</v>
       </c>
       <c r="N19">
-        <v>0.5714658117062967</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.972104845463519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.508467529819498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.215066182764531</v>
+        <v>1.426329473558894</v>
       </c>
       <c r="C20">
-        <v>0.6668908924434334</v>
+        <v>0.2981874338570094</v>
       </c>
       <c r="D20">
-        <v>0.2998503452640051</v>
+        <v>0.7674011365723459</v>
       </c>
       <c r="E20">
-        <v>0.03279055835218969</v>
+        <v>0.3545424657962783</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007707292768574831</v>
+        <v>0.4840892562347534</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001200138399006789</v>
       </c>
       <c r="I20">
-        <v>0.4378395038421701</v>
+        <v>0.00164275089157595</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3839581151676157</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3265536055746203</v>
       </c>
       <c r="L20">
-        <v>0.4781181760796471</v>
+        <v>0.2186196144521944</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.646486999418102</v>
       </c>
       <c r="N20">
-        <v>0.5615308557335936</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>3.061639056742592</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.7777472147975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.762769764886912</v>
+        <v>1.603431413106676</v>
       </c>
       <c r="C21">
-        <v>0.7456434831690046</v>
+        <v>0.3345019625663497</v>
       </c>
       <c r="D21">
-        <v>0.3404751166749236</v>
+        <v>0.8641180584338315</v>
       </c>
       <c r="E21">
-        <v>0.03373317001715748</v>
+        <v>0.405950287200497</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007644112514856173</v>
+        <v>0.5124460171938523</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0004134983219747923</v>
       </c>
       <c r="I21">
-        <v>0.4654405419899845</v>
+        <v>0.001743136130588852</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3920092401746587</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3284551486061709</v>
       </c>
       <c r="L21">
-        <v>0.5390027044810211</v>
+        <v>0.2558967903182889</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.850547950704652</v>
       </c>
       <c r="N21">
-        <v>0.5298169767894763</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>3.373320018768993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.855075577587826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.123713017002387</v>
+        <v>1.72091042962353</v>
       </c>
       <c r="C22">
-        <v>0.7974410616310763</v>
+        <v>0.355620636913585</v>
       </c>
       <c r="D22">
-        <v>0.3674523929358458</v>
+        <v>0.9193624145052866</v>
       </c>
       <c r="E22">
-        <v>0.03442210829502912</v>
+        <v>0.4329443951507841</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007603458672343137</v>
+        <v>0.5294568698155757</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001008412512291557</v>
       </c>
       <c r="I22">
-        <v>0.4850545111077906</v>
+        <v>0.001745372285666846</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.396572360458336</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3294637334188124</v>
       </c>
       <c r="L22">
-        <v>0.579444275205887</v>
+        <v>0.2739491705430765</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.981658893975748</v>
       </c>
       <c r="N22">
-        <v>0.5104039336783188</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>3.585919632254502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.900915553463534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.930770696801403</v>
+        <v>1.659588699942191</v>
       </c>
       <c r="C23">
-        <v>0.7697617613775378</v>
+        <v>0.3423489606174996</v>
       </c>
       <c r="D23">
-        <v>0.3530117500800287</v>
+        <v>0.8898683317451344</v>
       </c>
       <c r="E23">
-        <v>0.0340474487356186</v>
+        <v>0.4185446205690724</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007625101014318795</v>
+        <v>0.5222395516281892</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0006616534354275672</v>
       </c>
       <c r="I23">
-        <v>0.4744335199984562</v>
+        <v>0.001421721632450357</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3950916819809009</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3302865823219818</v>
       </c>
       <c r="L23">
-        <v>0.5577957232491713</v>
+        <v>0.2643234456242851</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.909992378718869</v>
       </c>
       <c r="N23">
-        <v>0.5206400118435397</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>3.471583001119257</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.882395726399409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.206158924272927</v>
+        <v>1.425062465565645</v>
       </c>
       <c r="C24">
-        <v>0.6656084208652544</v>
+        <v>0.2957537041658611</v>
       </c>
       <c r="D24">
-        <v>0.2991928405185718</v>
+        <v>0.7788019205178216</v>
       </c>
       <c r="E24">
-        <v>0.03277631935839231</v>
+        <v>0.3641787390271389</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007708336838498033</v>
+        <v>0.4929810428032368</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.326984771514276E-06</v>
       </c>
       <c r="I24">
-        <v>0.4374131332966016</v>
+        <v>0.001148454736728866</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3885729046289867</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3318033486200456</v>
       </c>
       <c r="L24">
-        <v>0.4771330221994816</v>
+        <v>0.2279934351671074</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.641822455800082</v>
       </c>
       <c r="N24">
-        <v>0.5620703434586503</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>3.056683377238727</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.806256757767983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.434870001150159</v>
+        <v>1.171872088691117</v>
       </c>
       <c r="C25">
-        <v>0.5543063857154777</v>
+        <v>0.2462281169959084</v>
       </c>
       <c r="D25">
-        <v>0.242660197677381</v>
+        <v>0.6602070335751762</v>
       </c>
       <c r="E25">
-        <v>0.03169059384259754</v>
+        <v>0.305854756894675</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007801143139981512</v>
+        <v>0.4637736805940875</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0005793825790370022</v>
       </c>
       <c r="I25">
-        <v>0.4034437057597984</v>
+        <v>0.001805950211829277</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3829382961857988</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3347904351818585</v>
       </c>
       <c r="L25">
-        <v>0.3924800762044924</v>
+        <v>0.189045042360128</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.353307753803051</v>
       </c>
       <c r="N25">
-        <v>0.6119476074041685</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.642290065747147</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.73201331297102</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9882933020726057</v>
+        <v>0.9776474728154767</v>
       </c>
       <c r="C2">
-        <v>0.2055756903920241</v>
+        <v>0.2234482156822821</v>
       </c>
       <c r="D2">
-        <v>0.5737418003464825</v>
+        <v>0.5755713087397112</v>
       </c>
       <c r="E2">
-        <v>0.2631174753083556</v>
+        <v>0.2644818378923475</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4487424085954004</v>
+        <v>0.3996787962796731</v>
       </c>
       <c r="H2">
-        <v>0.00197093651702307</v>
+        <v>0.001667141388981941</v>
       </c>
       <c r="I2">
-        <v>0.002279004581653421</v>
+        <v>0.00159680367644377</v>
       </c>
       <c r="J2">
-        <v>0.3823269115753263</v>
+        <v>0.3864110936267977</v>
       </c>
       <c r="K2">
-        <v>0.3415135444980066</v>
+        <v>0.3073771041420166</v>
       </c>
       <c r="L2">
-        <v>0.1605224699850112</v>
+        <v>0.1529786612748509</v>
       </c>
       <c r="M2">
-        <v>1.137192444396305</v>
+        <v>0.08376580703432879</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.161760114935305</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.16081600769715</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.698454741862122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.582451594106587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8616072690701913</v>
+        <v>0.8550208368160384</v>
       </c>
       <c r="C3">
-        <v>0.1809921500972962</v>
+        <v>0.1928964098287054</v>
       </c>
       <c r="D3">
-        <v>0.515494519484065</v>
+        <v>0.5175777073258985</v>
       </c>
       <c r="E3">
-        <v>0.2341786458894433</v>
+        <v>0.2357300548949937</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4368138851236125</v>
+        <v>0.3929326211135447</v>
       </c>
       <c r="H3">
-        <v>0.003468267349957421</v>
+        <v>0.002995668114722072</v>
       </c>
       <c r="I3">
-        <v>0.003376878441103681</v>
+        <v>0.002339162407258399</v>
       </c>
       <c r="J3">
-        <v>0.3811324624323973</v>
+        <v>0.3839832589688896</v>
       </c>
       <c r="K3">
-        <v>0.3446807001638206</v>
+        <v>0.3124214208859861</v>
       </c>
       <c r="L3">
-        <v>0.141198568477364</v>
+        <v>0.1581306802172904</v>
       </c>
       <c r="M3">
-        <v>0.993036113516979</v>
+        <v>0.08382969512986804</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1425796004667035</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.011925414692342</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.670370834314099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.565686581186895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7835518427036448</v>
+        <v>0.7793655904300749</v>
       </c>
       <c r="C4">
-        <v>0.1660810700037416</v>
+        <v>0.1744494047899963</v>
       </c>
       <c r="D4">
-        <v>0.4798846196088675</v>
+        <v>0.4821225700022183</v>
       </c>
       <c r="E4">
-        <v>0.2164178514229249</v>
+        <v>0.2180821126910502</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4298453023172684</v>
+        <v>0.3891524543555107</v>
       </c>
       <c r="H4">
-        <v>0.004641513642790196</v>
+        <v>0.00404417930496348</v>
       </c>
       <c r="I4">
-        <v>0.004240682497288262</v>
+        <v>0.002953350340598959</v>
       </c>
       <c r="J4">
-        <v>0.3806458887093811</v>
+        <v>0.3825548501212523</v>
       </c>
       <c r="K4">
-        <v>0.3468418463747902</v>
+        <v>0.3156648544614846</v>
       </c>
       <c r="L4">
-        <v>0.1293342101841048</v>
+        <v>0.1614111085017136</v>
       </c>
       <c r="M4">
-        <v>0.9045467600444397</v>
+        <v>0.08436946849717586</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1307965080938231</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9205745898194948</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.654390041274326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.556320261380705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7513386936164466</v>
+        <v>0.7481181356438356</v>
       </c>
       <c r="C5">
-        <v>0.1605251086886028</v>
+        <v>0.1675013815090693</v>
       </c>
       <c r="D5">
-        <v>0.4654008704247303</v>
+        <v>0.4677021953804399</v>
       </c>
       <c r="E5">
-        <v>0.2091751432529421</v>
+        <v>0.2108852280706515</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4265941646429283</v>
+        <v>0.3872388490573613</v>
       </c>
       <c r="H5">
-        <v>0.005182796985709393</v>
+        <v>0.004529359436486358</v>
       </c>
       <c r="I5">
-        <v>0.004715524079506039</v>
+        <v>0.00333066751867328</v>
       </c>
       <c r="J5">
-        <v>0.3802479880428109</v>
+        <v>0.3817349842687747</v>
       </c>
       <c r="K5">
-        <v>0.3474055477520963</v>
+        <v>0.3166877607135845</v>
       </c>
       <c r="L5">
-        <v>0.1244935343316413</v>
+        <v>0.1626026179537483</v>
       </c>
       <c r="M5">
-        <v>0.8688908734777385</v>
+        <v>0.08463729124347541</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1259875277889719</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8837577968332937</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.646585603150925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.55122867905132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7455763127987609</v>
+        <v>0.7425269246766391</v>
       </c>
       <c r="C6">
-        <v>0.1601916182410434</v>
+        <v>0.1669596947573808</v>
       </c>
       <c r="D6">
-        <v>0.4629897640358251</v>
+        <v>0.4653019472645212</v>
       </c>
       <c r="E6">
-        <v>0.2079664897891575</v>
+        <v>0.2096843645537945</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4254529049399878</v>
+        <v>0.3863654381712252</v>
       </c>
       <c r="H6">
-        <v>0.005278709918356606</v>
+        <v>0.004615395954527535</v>
       </c>
       <c r="I6">
-        <v>0.004898682508970076</v>
+        <v>0.00351303082519383</v>
       </c>
       <c r="J6">
-        <v>0.3798680505874188</v>
+        <v>0.3812909647873965</v>
       </c>
       <c r="K6">
-        <v>0.3470511648216359</v>
+        <v>0.316452286345088</v>
       </c>
       <c r="L6">
-        <v>0.123684449399839</v>
+        <v>0.1625899188340476</v>
       </c>
       <c r="M6">
-        <v>0.8634665713610161</v>
+        <v>0.08459446445606833</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1251837304457766</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8781327269707049</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.643357313782232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.548568681782797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7819966329145132</v>
+        <v>0.77799348977058</v>
       </c>
       <c r="C7">
-        <v>0.1676107563831124</v>
+        <v>0.1757633178910396</v>
       </c>
       <c r="D7">
-        <v>0.4796674784427921</v>
+        <v>0.4818901640690854</v>
       </c>
       <c r="E7">
-        <v>0.2163041175595239</v>
+        <v>0.217956850743235</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.428146282214442</v>
+        <v>0.389925239275037</v>
       </c>
       <c r="H7">
-        <v>0.004654578785087793</v>
+        <v>0.004060220751500587</v>
       </c>
       <c r="I7">
-        <v>0.004508355043091328</v>
+        <v>0.003264548854293281</v>
       </c>
       <c r="J7">
-        <v>0.3797752820324618</v>
+        <v>0.3778037567127512</v>
       </c>
       <c r="K7">
-        <v>0.3456195273827056</v>
+        <v>0.3141443921010527</v>
       </c>
       <c r="L7">
-        <v>0.1292549048246769</v>
+        <v>0.1606491110962516</v>
       </c>
       <c r="M7">
-        <v>0.9054258619318603</v>
+        <v>0.08399375203354253</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1307067521035563</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9211810959214688</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.64896401470466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.548369583393239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.943166842935824</v>
+        <v>0.934444966181843</v>
       </c>
       <c r="C8">
-        <v>0.1992009663774041</v>
+        <v>0.2142147445532316</v>
       </c>
       <c r="D8">
-        <v>0.5535955538531709</v>
+        <v>0.5554603530722204</v>
       </c>
       <c r="E8">
-        <v>0.2531158292578297</v>
+        <v>0.2545057933647783</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4423723528679417</v>
+        <v>0.40306272438864</v>
       </c>
       <c r="H8">
-        <v>0.002438325233729888</v>
+        <v>0.002089824387366712</v>
       </c>
       <c r="I8">
-        <v>0.002930332630222132</v>
+        <v>0.002192854796000177</v>
       </c>
       <c r="J8">
-        <v>0.38072793935455</v>
+        <v>0.3718097701437841</v>
       </c>
       <c r="K8">
-        <v>0.3409473746394411</v>
+        <v>0.3062713883205497</v>
       </c>
       <c r="L8">
-        <v>0.1538398668319445</v>
+        <v>0.1534341862731665</v>
       </c>
       <c r="M8">
-        <v>1.089293883504268</v>
+        <v>0.08285764906869098</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1550926494349483</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.110462885072764</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.681502379261275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.560428696155697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.259275522581845</v>
+        <v>1.239959732316493</v>
       </c>
       <c r="C9">
-        <v>0.2598700916166763</v>
+        <v>0.2901783785171972</v>
       </c>
       <c r="D9">
-        <v>0.7000527443605336</v>
+        <v>0.7012525558050982</v>
       </c>
       <c r="E9">
-        <v>0.3254957959643434</v>
+        <v>0.326390393439425</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4762552694137554</v>
+        <v>0.4261046804627142</v>
       </c>
       <c r="H9">
-        <v>0.0002238975449750935</v>
+        <v>0.0001624865144578269</v>
       </c>
       <c r="I9">
-        <v>0.001040248961276191</v>
+        <v>0.0009469524660863371</v>
       </c>
       <c r="J9">
-        <v>0.3861772201119322</v>
+        <v>0.3758173713333761</v>
       </c>
       <c r="K9">
-        <v>0.3357621204454091</v>
+        <v>0.2955336248354463</v>
       </c>
       <c r="L9">
-        <v>0.2021662939693485</v>
+        <v>0.1418784079002027</v>
       </c>
       <c r="M9">
-        <v>1.447932458895934</v>
+        <v>0.08559881553996185</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2030048674164604</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.480917689249026</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.765436430520737</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.611292900145386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.490601921126796</v>
+        <v>1.464273034344387</v>
       </c>
       <c r="C10">
-        <v>0.3050176687941359</v>
+        <v>0.344840728031329</v>
       </c>
       <c r="D10">
-        <v>0.7924894620621501</v>
+        <v>0.7930881270241912</v>
       </c>
       <c r="E10">
-        <v>0.3657099941939279</v>
+        <v>0.3661543326577217</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.494390253923882</v>
+        <v>0.4514842955329499</v>
       </c>
       <c r="H10">
-        <v>0.0002405619722143371</v>
+        <v>0.0002572566976901669</v>
       </c>
       <c r="I10">
-        <v>0.0008925784494238087</v>
+        <v>0.001101513632132622</v>
       </c>
       <c r="J10">
-        <v>0.3870654654943451</v>
+        <v>0.3547839901102563</v>
       </c>
       <c r="K10">
-        <v>0.3285984423581461</v>
+        <v>0.2826936432233893</v>
       </c>
       <c r="L10">
-        <v>0.2252678128179753</v>
+        <v>0.1319402353574528</v>
       </c>
       <c r="M10">
-        <v>1.711450411131864</v>
+        <v>0.08774908986556795</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2256929523618112</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.751227033917019</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.806211381678878</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.613752358367833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.599211361215936</v>
+        <v>1.575297840979459</v>
       </c>
       <c r="C11">
-        <v>0.3155936299118878</v>
+        <v>0.3499280741839073</v>
       </c>
       <c r="D11">
-        <v>0.6970772592698324</v>
+        <v>0.6973541018823539</v>
       </c>
       <c r="E11">
-        <v>0.2777700900926376</v>
+        <v>0.277971489332657</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4327659812966971</v>
+        <v>0.4239002545811701</v>
       </c>
       <c r="H11">
-        <v>0.01878712537036265</v>
+        <v>0.01879378521325137</v>
       </c>
       <c r="I11">
-        <v>0.001446339135784847</v>
+        <v>0.001800512341731952</v>
       </c>
       <c r="J11">
-        <v>0.3522526010846718</v>
+        <v>0.2913823997604865</v>
       </c>
       <c r="K11">
-        <v>0.2911810740576151</v>
+        <v>0.2478587607648208</v>
       </c>
       <c r="L11">
-        <v>0.1406013768364431</v>
+        <v>0.1179091390146425</v>
       </c>
       <c r="M11">
-        <v>1.820494103965871</v>
+        <v>0.07676181067814625</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1407938084846592</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.85565365570406</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.602854610266064</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.402343467504849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.644246185452346</v>
+        <v>1.623484224471667</v>
       </c>
       <c r="C12">
-        <v>0.3121711155102673</v>
+        <v>0.3406608452953037</v>
       </c>
       <c r="D12">
-        <v>0.6027546161588191</v>
+        <v>0.6029454239533152</v>
       </c>
       <c r="E12">
-        <v>0.2063715131154993</v>
+        <v>0.2065083119706657</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3823948317018306</v>
+        <v>0.3893381170960737</v>
       </c>
       <c r="H12">
-        <v>0.05742629673331123</v>
+        <v>0.05742858318605926</v>
       </c>
       <c r="I12">
-        <v>0.001452331713589494</v>
+        <v>0.001808640826169494</v>
       </c>
       <c r="J12">
-        <v>0.3252389325820459</v>
+        <v>0.2613495121007361</v>
       </c>
       <c r="K12">
-        <v>0.2650673299088773</v>
+        <v>0.2262867635703696</v>
       </c>
       <c r="L12">
-        <v>0.08324489736654783</v>
+        <v>0.1102628796784977</v>
       </c>
       <c r="M12">
-        <v>1.854355642512786</v>
+        <v>0.06863756093205886</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.08337551184499148</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.884911432082902</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.439562160006361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.250906946424834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.640751519477561</v>
+        <v>1.623522462085361</v>
       </c>
       <c r="C13">
-        <v>0.3003655118311315</v>
+        <v>0.3232746537427147</v>
       </c>
       <c r="D13">
-        <v>0.5043097356165731</v>
+        <v>0.5045756897477531</v>
       </c>
       <c r="E13">
-        <v>0.1438780750869526</v>
+        <v>0.1440666460615283</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3351289553216645</v>
+        <v>0.3408864256359507</v>
       </c>
       <c r="H13">
-        <v>0.1131530880856815</v>
+        <v>0.1131501749821666</v>
       </c>
       <c r="I13">
-        <v>0.001388640434348609</v>
+        <v>0.001718030698853568</v>
       </c>
       <c r="J13">
-        <v>0.3012439261704003</v>
+        <v>0.2512159441082815</v>
       </c>
       <c r="K13">
-        <v>0.2440952869956359</v>
+        <v>0.2118962077040987</v>
       </c>
       <c r="L13">
-        <v>0.04366603248199752</v>
+        <v>0.1058173550447865</v>
       </c>
       <c r="M13">
-        <v>1.834163955046222</v>
+        <v>0.06202543723652987</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04384588893010744</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.8605171001131</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.289081914303011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.131113641418651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.615959035856463</v>
+        <v>1.601378933218029</v>
       </c>
       <c r="C14">
-        <v>0.2888614580704427</v>
+        <v>0.3079862457935576</v>
       </c>
       <c r="D14">
-        <v>0.4349590100463274</v>
+        <v>0.4353299818635037</v>
       </c>
       <c r="E14">
-        <v>0.1060437674133574</v>
+        <v>0.1063053001401855</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3037258413205706</v>
+        <v>0.3027175686208707</v>
       </c>
       <c r="H14">
-        <v>0.1625146530742825</v>
+        <v>0.1625023738973823</v>
       </c>
       <c r="I14">
-        <v>0.001412261442614415</v>
+        <v>0.001719672458898813</v>
       </c>
       <c r="J14">
-        <v>0.2858965156644118</v>
+        <v>0.2505424650374977</v>
       </c>
       <c r="K14">
-        <v>0.2318391252869958</v>
+        <v>0.2047104753512929</v>
       </c>
       <c r="L14">
-        <v>0.02670372933042486</v>
+        <v>0.1038440474490692</v>
       </c>
       <c r="M14">
-        <v>1.796034435325595</v>
+        <v>0.05812805694173306</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.02695299878721791</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.819594800886591</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.19030542952747</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.059840544384215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.599023617773781</v>
+        <v>1.585183501530338</v>
       </c>
       <c r="C15">
-        <v>0.2849496767886706</v>
+        <v>0.303172310445575</v>
       </c>
       <c r="D15">
-        <v>0.4166120910060727</v>
+        <v>0.4170355071679239</v>
       </c>
       <c r="E15">
-        <v>0.09735150080361521</v>
+        <v>0.09764975228059569</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2959625645401971</v>
+        <v>0.2910710218773431</v>
       </c>
       <c r="H15">
-        <v>0.1750380205631785</v>
+        <v>0.1750198974555275</v>
       </c>
       <c r="I15">
-        <v>0.001529010038890277</v>
+        <v>0.001843529977086256</v>
       </c>
       <c r="J15">
-        <v>0.2824224756194624</v>
+        <v>0.2529180931745962</v>
       </c>
       <c r="K15">
-        <v>0.2294005675554338</v>
+        <v>0.2038062991949783</v>
       </c>
       <c r="L15">
-        <v>0.02393178827076436</v>
+        <v>0.1037080293778203</v>
       </c>
       <c r="M15">
-        <v>1.775844588784821</v>
+        <v>0.05733241994464322</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.02421569292867787</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.798775501063574</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.166536415281669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.045641905939107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.499054912384366</v>
+        <v>1.48614157828888</v>
       </c>
       <c r="C16">
-        <v>0.2690875728538913</v>
+        <v>0.2869564432369032</v>
       </c>
       <c r="D16">
-        <v>0.3994680934997348</v>
+        <v>0.4001596075881935</v>
       </c>
       <c r="E16">
-        <v>0.09467588158188533</v>
+        <v>0.09516465299969923</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.29713706940516</v>
+        <v>0.2738345716991546</v>
       </c>
       <c r="H16">
-        <v>0.1624086826103905</v>
+        <v>0.162349094885613</v>
       </c>
       <c r="I16">
-        <v>0.001694933088068673</v>
+        <v>0.001932274291160496</v>
       </c>
       <c r="J16">
-        <v>0.2863859619827736</v>
+        <v>0.2788689417480938</v>
       </c>
       <c r="K16">
-        <v>0.23584777089747</v>
+        <v>0.2128598147944647</v>
       </c>
       <c r="L16">
-        <v>0.02344458604721567</v>
+        <v>0.1075099605007797</v>
       </c>
       <c r="M16">
-        <v>1.667336426208664</v>
+        <v>0.05913619674826442</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.02390333974245884</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.690541846322049</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.177129532010554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.08138007969076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.435684920172889</v>
+        <v>1.422324179988834</v>
       </c>
       <c r="C17">
-        <v>0.2631039990596662</v>
+        <v>0.2823003273337861</v>
       </c>
       <c r="D17">
-        <v>0.4222004478690735</v>
+        <v>0.423050288950094</v>
       </c>
       <c r="E17">
-        <v>0.1113764379553182</v>
+        <v>0.1119804144286363</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3143755776097734</v>
+        <v>0.2820220656250356</v>
       </c>
       <c r="H17">
-        <v>0.1247097758558482</v>
+        <v>0.1246210708503526</v>
       </c>
       <c r="I17">
-        <v>0.001848125277867041</v>
+        <v>0.002035950802707021</v>
       </c>
       <c r="J17">
-        <v>0.2974669286499676</v>
+        <v>0.2993460653043343</v>
       </c>
       <c r="K17">
-        <v>0.247134447127074</v>
+        <v>0.2235982749993521</v>
       </c>
       <c r="L17">
-        <v>0.03014973873136029</v>
+        <v>0.1118227170988613</v>
       </c>
       <c r="M17">
-        <v>1.604593333170527</v>
+        <v>0.06232202703817613</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.03071123687070809</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.629083628067889</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.236762793965127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.145090859810381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.397575768056527</v>
+        <v>1.382232240510888</v>
       </c>
       <c r="C18">
-        <v>0.2635144472781121</v>
+        <v>0.2861784552057998</v>
       </c>
       <c r="D18">
-        <v>0.4850742962991603</v>
+        <v>0.4860246568270554</v>
       </c>
       <c r="E18">
-        <v>0.1524340046863024</v>
+        <v>0.1531159291536142</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3500275934643682</v>
+        <v>0.3102590755101318</v>
       </c>
       <c r="H18">
-        <v>0.07186135607490485</v>
+        <v>0.07176879852957541</v>
       </c>
       <c r="I18">
-        <v>0.001658688549508014</v>
+        <v>0.001782757027039672</v>
       </c>
       <c r="J18">
-        <v>0.3171711807713677</v>
+        <v>0.3216777345977846</v>
       </c>
       <c r="K18">
-        <v>0.2656490751225054</v>
+        <v>0.2390384465240807</v>
       </c>
       <c r="L18">
-        <v>0.05315386595715665</v>
+        <v>0.1178563468456648</v>
       </c>
       <c r="M18">
-        <v>1.572616318386451</v>
+        <v>0.06766732133286446</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05378605508731127</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.599946280562733</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.353548890584278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.252091721545469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.380389472930091</v>
+        <v>1.361962309760031</v>
       </c>
       <c r="C19">
-        <v>0.2721393636510498</v>
+        <v>0.3001708097412745</v>
       </c>
       <c r="D19">
-        <v>0.5811123963108855</v>
+        <v>0.582105911320042</v>
       </c>
       <c r="E19">
-        <v>0.2190645829249291</v>
+        <v>0.2197871786502503</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.398252547416611</v>
+        <v>0.3510996500485319</v>
       </c>
       <c r="H19">
-        <v>0.02647117300086421</v>
+        <v>0.02640346161376783</v>
       </c>
       <c r="I19">
-        <v>0.001739566779980883</v>
+        <v>0.001908920325604413</v>
       </c>
       <c r="J19">
-        <v>0.3423314889600775</v>
+        <v>0.3453254401985149</v>
       </c>
       <c r="K19">
-        <v>0.2888018469522855</v>
+        <v>0.257295078615126</v>
       </c>
       <c r="L19">
-        <v>0.1017464476579448</v>
+        <v>0.1248393376340768</v>
       </c>
       <c r="M19">
-        <v>1.57028775051964</v>
+        <v>0.07442142833438758</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1024200442518648</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.60163109043026</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.508467529819498</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.387622061031749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.426329473558894</v>
+        <v>1.401528359560274</v>
       </c>
       <c r="C20">
-        <v>0.2981874338570094</v>
+        <v>0.3367573935308315</v>
       </c>
       <c r="D20">
-        <v>0.7674011365723459</v>
+        <v>0.7682167769512773</v>
       </c>
       <c r="E20">
-        <v>0.3545424657962783</v>
+        <v>0.355148544360226</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4840892562347534</v>
+        <v>0.4310960377525248</v>
       </c>
       <c r="H20">
-        <v>0.0001200138399006789</v>
+        <v>0.000126138152505284</v>
       </c>
       <c r="I20">
-        <v>0.00164275089157595</v>
+        <v>0.001942599648742771</v>
       </c>
       <c r="J20">
-        <v>0.3839581151676157</v>
+        <v>0.3703941896269498</v>
       </c>
       <c r="K20">
-        <v>0.3265536055746203</v>
+        <v>0.284147361265692</v>
       </c>
       <c r="L20">
-        <v>0.2186196144521944</v>
+        <v>0.1337932939456952</v>
       </c>
       <c r="M20">
-        <v>1.646486999418102</v>
+        <v>0.08633049423356809</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2191964831103519</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.685271439417704</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.7777472147975</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.607136640208552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.603431413106676</v>
+        <v>1.575015127796263</v>
       </c>
       <c r="C21">
-        <v>0.3345019625663497</v>
+        <v>0.3765063209811785</v>
       </c>
       <c r="D21">
-        <v>0.8641180584338315</v>
+        <v>0.8641758445686776</v>
       </c>
       <c r="E21">
-        <v>0.405950287200497</v>
+        <v>0.4059931743790841</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5124460171938523</v>
+        <v>0.5114462431467786</v>
       </c>
       <c r="H21">
-        <v>0.0004134983219747923</v>
+        <v>0.0004175618023329886</v>
       </c>
       <c r="I21">
-        <v>0.001743136130588852</v>
+        <v>0.002168636876061392</v>
       </c>
       <c r="J21">
-        <v>0.3920092401746587</v>
+        <v>0.3017072136887364</v>
       </c>
       <c r="K21">
-        <v>0.3284551486061709</v>
+        <v>0.2727866688971403</v>
       </c>
       <c r="L21">
-        <v>0.2558967903182889</v>
+        <v>0.1260565507596514</v>
       </c>
       <c r="M21">
-        <v>1.850547950704652</v>
+        <v>0.08773641440535584</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2559382600344833</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.890805807256498</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.855075577587826</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.595641964821596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.72091042962353</v>
+        <v>1.690495072871556</v>
       </c>
       <c r="C22">
-        <v>0.355620636913585</v>
+        <v>0.3989226853100831</v>
       </c>
       <c r="D22">
-        <v>0.9193624145052866</v>
+        <v>0.9189100654083404</v>
       </c>
       <c r="E22">
-        <v>0.4329443951507841</v>
+        <v>0.4326094142399697</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5294568698155757</v>
+        <v>0.5707308980164782</v>
       </c>
       <c r="H22">
-        <v>0.001008412512291557</v>
+        <v>0.0009605549286595405</v>
       </c>
       <c r="I22">
-        <v>0.001745372285666846</v>
+        <v>0.00212369566171855</v>
       </c>
       <c r="J22">
-        <v>0.396572360458336</v>
+        <v>0.2622571740206894</v>
       </c>
       <c r="K22">
-        <v>0.3294637334188124</v>
+        <v>0.2647511533213738</v>
       </c>
       <c r="L22">
-        <v>0.2739491705430765</v>
+        <v>0.1210353356161686</v>
       </c>
       <c r="M22">
-        <v>1.981658893975748</v>
+        <v>0.088596525434955</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2736225054976273</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.022155447580104</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.900915553463534</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.579924283422827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.659588699942191</v>
+        <v>1.629805526490088</v>
       </c>
       <c r="C23">
-        <v>0.3423489606174996</v>
+        <v>0.3855824435208604</v>
       </c>
       <c r="D23">
-        <v>0.8898683317451344</v>
+        <v>0.8897206627399044</v>
       </c>
       <c r="E23">
-        <v>0.4185446205690724</v>
+        <v>0.4184351245804905</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5222395516281892</v>
+        <v>0.533386296224748</v>
       </c>
       <c r="H23">
-        <v>0.0006616534354275672</v>
+        <v>0.0006487529928285163</v>
       </c>
       <c r="I23">
-        <v>0.001421721632450357</v>
+        <v>0.001770932784797452</v>
       </c>
       <c r="J23">
-        <v>0.3950916819809009</v>
+        <v>0.2893954263001461</v>
       </c>
       <c r="K23">
-        <v>0.3302865823219818</v>
+        <v>0.2711262524393803</v>
       </c>
       <c r="L23">
-        <v>0.2643234456242851</v>
+        <v>0.124365764990424</v>
       </c>
       <c r="M23">
-        <v>1.909992378718869</v>
+        <v>0.08902175710342775</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2642171279548364</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.951044579298127</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.882395726399409</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.600814416569932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.425062465565645</v>
+        <v>1.399897772590151</v>
       </c>
       <c r="C24">
-        <v>0.2957537041658611</v>
+        <v>0.3346888188628725</v>
       </c>
       <c r="D24">
-        <v>0.7788019205178216</v>
+        <v>0.7796202612254035</v>
       </c>
       <c r="E24">
-        <v>0.3641787390271389</v>
+        <v>0.3647879180737021</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4929810428032368</v>
+        <v>0.4385475207778313</v>
       </c>
       <c r="H24">
-        <v>5.326984771514276E-06</v>
+        <v>1.421476346630257E-05</v>
       </c>
       <c r="I24">
-        <v>0.001148454736728866</v>
+        <v>0.001351356070998122</v>
       </c>
       <c r="J24">
-        <v>0.3885729046289867</v>
+        <v>0.3750814300874836</v>
       </c>
       <c r="K24">
-        <v>0.3318033486200456</v>
+        <v>0.2884826614550917</v>
       </c>
       <c r="L24">
-        <v>0.2279934351671074</v>
+        <v>0.1354355738054966</v>
       </c>
       <c r="M24">
-        <v>1.641822455800082</v>
+        <v>0.08794112757450279</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2285738940398119</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.681033276566126</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.806256757767983</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.632721643080146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.171872088691117</v>
+        <v>1.155387783439323</v>
       </c>
       <c r="C25">
-        <v>0.2462281169959084</v>
+        <v>0.272840965296723</v>
       </c>
       <c r="D25">
-        <v>0.6602070335751762</v>
+        <v>0.6616154694732757</v>
       </c>
       <c r="E25">
-        <v>0.305854756894675</v>
+        <v>0.3069052394132328</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4637736805940875</v>
+        <v>0.4134117620061843</v>
       </c>
       <c r="H25">
-        <v>0.0005793825790370022</v>
+        <v>0.000459004827173759</v>
       </c>
       <c r="I25">
-        <v>0.001805950211829277</v>
+        <v>0.001648799382626187</v>
       </c>
       <c r="J25">
-        <v>0.3829382961857988</v>
+        <v>0.3785817957190289</v>
       </c>
       <c r="K25">
-        <v>0.3347904351818585</v>
+        <v>0.2969998150858792</v>
       </c>
       <c r="L25">
-        <v>0.189045042360128</v>
+        <v>0.1443774481126407</v>
       </c>
       <c r="M25">
-        <v>1.353307753803051</v>
+        <v>0.08397024135911479</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1900204212291712</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.383374729570704</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.73201331297102</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.591984941046761</v>
       </c>
     </row>
   </sheetData>
